--- a/Requirement/A5-User Stories.xlsx
+++ b/Requirement/A5-User Stories.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25203"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="1595" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA5E261A-7BEB-4120-B1D6-5121FAA73AA1}"/>
+  <xr:revisionPtr revIDLastSave="1694" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F73BD77D-31C1-4D87-B67B-87CB0AC621BC}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="167">
   <si>
     <t>USER STORIES</t>
   </si>
@@ -447,31 +447,91 @@
     <t xml:space="preserve">Develope a wireframe </t>
   </si>
   <si>
-    <t>So that I can land into admin home page</t>
+    <t>Acceptance criteria</t>
+  </si>
+  <si>
+    <t>So that I can access admin landing page</t>
+  </si>
+  <si>
+    <t>When a admin give a correct credntials it landed to admin page</t>
   </si>
   <si>
     <t>I want to Manage Employee</t>
   </si>
   <si>
-    <t>I want to Manage Awards</t>
-  </si>
-  <si>
-    <t>So that i can land into requester home page</t>
-  </si>
-  <si>
-    <t>So that i can able to nominate an employee.</t>
-  </si>
-  <si>
-    <t>So that i can land into approver home page</t>
-  </si>
-  <si>
-    <t>So that i can  land into home page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">So that i can Trigger the mail </t>
-  </si>
-  <si>
-    <t>So that i can  Comment on feed posts</t>
+    <t>creation / updation / deletion  of employee performed correctly</t>
+  </si>
+  <si>
+    <t>I want to Manage  Awards</t>
+  </si>
+  <si>
+    <t>creation / updation / deletion of Award performed correctly</t>
+  </si>
+  <si>
+    <t>I want to Manage Department</t>
+  </si>
+  <si>
+    <t>creation / updation / deletion of Department performed correctly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So that i can able to view the overview of awards,Department  </t>
+  </si>
+  <si>
+    <t>Dashboard displayed the correct Statistics of awards and departments</t>
+  </si>
+  <si>
+    <t>So that i can access Requester landing page</t>
+  </si>
+  <si>
+    <t>When a requester give a correct credntials it landed to requester page</t>
+  </si>
+  <si>
+    <t>whlie nominating its able to give employee details , categorize the award and  reason for the award then send the request to approver</t>
+  </si>
+  <si>
+    <t>So that i can  access approver landing page</t>
+  </si>
+  <si>
+    <t>When a approver give a correct credntials it landed to approver page</t>
+  </si>
+  <si>
+    <t>So that i can View the request and approve / reject the  Nominee</t>
+  </si>
+  <si>
+    <t>when view the request the approver able to approve / reject the request and send the approved list to HR</t>
+  </si>
+  <si>
+    <t>Dashboard displayed the correct information of awards and awardee</t>
+  </si>
+  <si>
+    <t>So that i can access HR landing page</t>
+  </si>
+  <si>
+    <t>When a HR give a correct credntials it landed to HR page</t>
+  </si>
+  <si>
+    <t>I want to publish the feed</t>
+  </si>
+  <si>
+    <t>So that i can  view the approved request and  Trigger the mail with coupon then publish</t>
+  </si>
+  <si>
+    <t>When view the approved request HR give coupon code and trigger a mail to awardee then publish the feed</t>
+  </si>
+  <si>
+    <t>Awardee view the award and then claim the rewards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">History of Awards is displayed correctly </t>
+  </si>
+  <si>
+    <t>When public enters the home page , the post of recent awardee will be displayed</t>
+  </si>
+  <si>
+    <t>Whlie searching the award or awardee it displays the particular award or awardee</t>
+  </si>
+  <si>
+    <t>When public try to comment it ask to login and then it enables able to comment</t>
   </si>
 </sst>
 </file>
@@ -610,7 +670,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -895,19 +955,6 @@
         <color rgb="FF000000"/>
       </right>
       <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -967,56 +1014,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1133,7 +1135,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1145,10 +1147,10 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1169,102 +1171,90 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2982,19 +2972,19 @@
     </row>
     <row r="5" spans="3:17">
       <c r="C5" s="4"/>
-      <c r="O5" s="64" t="s">
+      <c r="O5" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="66"/>
+      <c r="P5" s="57"/>
+      <c r="Q5" s="58"/>
     </row>
     <row r="8" spans="3:17">
-      <c r="C8" s="61" t="s">
+      <c r="C8" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="62"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="68"/>
     </row>
     <row r="9" spans="3:17">
       <c r="C9" s="14" t="s">
@@ -3011,10 +3001,10 @@
       </c>
     </row>
     <row r="10" spans="3:17">
-      <c r="C10" s="58">
+      <c r="C10" s="62">
         <v>1</v>
       </c>
-      <c r="D10" s="63" t="s">
+      <c r="D10" s="59" t="s">
         <v>39</v>
       </c>
       <c r="E10" s="15" t="s">
@@ -3025,26 +3015,26 @@
       </c>
     </row>
     <row r="11" spans="3:17">
-      <c r="C11" s="59"/>
-      <c r="D11" s="67"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="60"/>
       <c r="E11" s="16" t="s">
         <v>42</v>
       </c>
       <c r="F11" s="25"/>
     </row>
     <row r="12" spans="3:17">
-      <c r="C12" s="60"/>
-      <c r="D12" s="68"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="61"/>
       <c r="E12" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F12" s="22"/>
     </row>
     <row r="13" spans="3:17">
-      <c r="C13" s="58">
+      <c r="C13" s="62">
         <v>2</v>
       </c>
-      <c r="D13" s="63" t="s">
+      <c r="D13" s="59" t="s">
         <v>5</v>
       </c>
       <c r="E13" s="11" t="s">
@@ -3055,172 +3045,172 @@
       </c>
     </row>
     <row r="14" spans="3:17">
-      <c r="C14" s="58"/>
-      <c r="D14" s="63"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="59"/>
       <c r="E14" s="11" t="s">
         <v>46</v>
       </c>
       <c r="F14" s="25"/>
     </row>
     <row r="15" spans="3:17">
-      <c r="C15" s="58"/>
-      <c r="D15" s="63"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="59"/>
       <c r="E15" s="11" t="s">
         <v>47</v>
       </c>
       <c r="F15" s="25"/>
     </row>
     <row r="16" spans="3:17">
-      <c r="C16" s="58"/>
-      <c r="D16" s="63"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="59"/>
       <c r="E16" s="13" t="s">
         <v>6</v>
       </c>
       <c r="F16" s="22"/>
     </row>
     <row r="17" spans="3:6">
-      <c r="C17" s="58">
+      <c r="C17" s="62">
         <v>3</v>
       </c>
-      <c r="D17" s="63" t="s">
+      <c r="D17" s="59" t="s">
         <v>8</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="F17" s="58" t="s">
+      <c r="F17" s="62" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="3:6">
-      <c r="C18" s="58"/>
-      <c r="D18" s="63"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="59"/>
       <c r="E18" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="F18" s="59"/>
+      <c r="F18" s="63"/>
     </row>
     <row r="19" spans="3:6">
-      <c r="C19" s="58"/>
-      <c r="D19" s="63"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="59"/>
       <c r="E19" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="59"/>
+      <c r="F19" s="63"/>
     </row>
     <row r="20" spans="3:6">
-      <c r="C20" s="58"/>
-      <c r="D20" s="63"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="59"/>
       <c r="E20" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="F20" s="59"/>
+      <c r="F20" s="63"/>
     </row>
     <row r="21" spans="3:6">
-      <c r="C21" s="58"/>
-      <c r="D21" s="63"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="59"/>
       <c r="E21" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="F21" s="60"/>
+      <c r="F21" s="64"/>
     </row>
     <row r="22" spans="3:6">
-      <c r="C22" s="58">
+      <c r="C22" s="62">
         <v>4</v>
       </c>
-      <c r="D22" s="63" t="s">
+      <c r="D22" s="59" t="s">
         <v>53</v>
       </c>
       <c r="E22" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="F22" s="58" t="s">
+      <c r="F22" s="62" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="23" spans="3:6">
-      <c r="C23" s="58"/>
-      <c r="D23" s="63"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="59"/>
       <c r="E23" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="F23" s="59"/>
+      <c r="F23" s="63"/>
     </row>
     <row r="24" spans="3:6">
-      <c r="C24" s="58"/>
-      <c r="D24" s="63"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="59"/>
       <c r="E24" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="F24" s="59"/>
+      <c r="F24" s="63"/>
     </row>
     <row r="25" spans="3:6">
-      <c r="C25" s="58"/>
-      <c r="D25" s="63"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="59"/>
       <c r="E25" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F25" s="60"/>
+      <c r="F25" s="64"/>
     </row>
     <row r="26" spans="3:6">
-      <c r="C26" s="57">
+      <c r="C26" s="66">
         <v>5</v>
       </c>
-      <c r="D26" s="56" t="s">
+      <c r="D26" s="65" t="s">
         <v>58</v>
       </c>
       <c r="E26" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="F26" s="58" t="s">
+      <c r="F26" s="62" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="27" spans="3:6">
-      <c r="C27" s="57"/>
-      <c r="D27" s="56"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="65"/>
       <c r="E27" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="F27" s="59"/>
+      <c r="F27" s="63"/>
     </row>
     <row r="28" spans="3:6">
-      <c r="C28" s="57"/>
-      <c r="D28" s="56"/>
+      <c r="C28" s="66"/>
+      <c r="D28" s="65"/>
       <c r="E28" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="F28" s="60"/>
+      <c r="F28" s="64"/>
     </row>
     <row r="29" spans="3:6">
-      <c r="C29" s="57">
+      <c r="C29" s="66">
         <v>6</v>
       </c>
-      <c r="D29" s="56" t="s">
+      <c r="D29" s="65" t="s">
         <v>15</v>
       </c>
       <c r="E29" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="F29" s="58" t="s">
+      <c r="F29" s="62" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="30" spans="3:6">
-      <c r="C30" s="57"/>
-      <c r="D30" s="56"/>
+      <c r="C30" s="66"/>
+      <c r="D30" s="65"/>
       <c r="E30" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="F30" s="59"/>
+      <c r="F30" s="63"/>
     </row>
     <row r="31" spans="3:6">
-      <c r="C31" s="57"/>
-      <c r="D31" s="56"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="65"/>
       <c r="E31" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="F31" s="60"/>
+      <c r="F31" s="64"/>
     </row>
     <row r="36" spans="2:6">
       <c r="F36" s="19" t="s">
@@ -3316,6 +3306,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="F17:F21"/>
     <mergeCell ref="O5:Q5"/>
     <mergeCell ref="D10:D12"/>
     <mergeCell ref="C10:C12"/>
@@ -3332,8 +3324,6 @@
     <mergeCell ref="C13:C16"/>
     <mergeCell ref="D13:D16"/>
     <mergeCell ref="D17:D21"/>
-    <mergeCell ref="C17:C21"/>
-    <mergeCell ref="F17:F21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3344,8 +3334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1F59750-DACF-4F6C-8621-BEF568401F46}">
   <dimension ref="B3:CH53"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3359,17 +3349,17 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:86" ht="30" customHeight="1">
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="Q3" s="69" t="s">
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="Q3" s="71" t="s">
         <v>80</v>
       </c>
-      <c r="R3" s="69"/>
+      <c r="R3" s="71"/>
     </row>
     <row r="4" spans="2:86" ht="30" customHeight="1">
       <c r="B4" s="46" t="s">
@@ -3387,32 +3377,32 @@
       <c r="F4" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="AD4" s="70" t="s">
+      <c r="AD4" s="77" t="s">
         <v>84</v>
       </c>
-      <c r="AE4" s="70"/>
-      <c r="AF4" s="70"/>
-      <c r="AU4" s="69" t="s">
+      <c r="AE4" s="77"/>
+      <c r="AF4" s="77"/>
+      <c r="AU4" s="71" t="s">
         <v>85</v>
       </c>
-      <c r="AV4" s="69"/>
-      <c r="AW4" s="69"/>
-      <c r="BO4" s="69" t="s">
+      <c r="AV4" s="71"/>
+      <c r="AW4" s="71"/>
+      <c r="BO4" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="BP4" s="69"/>
-      <c r="BQ4" s="69"/>
-      <c r="CF4" s="69" t="s">
+      <c r="BP4" s="71"/>
+      <c r="BQ4" s="71"/>
+      <c r="CF4" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="CG4" s="69"/>
-      <c r="CH4" s="69"/>
+      <c r="CG4" s="71"/>
+      <c r="CH4" s="71"/>
     </row>
     <row r="5" spans="2:86" ht="30" customHeight="1">
-      <c r="B5" s="72">
+      <c r="B5" s="75">
         <v>1</v>
       </c>
-      <c r="C5" s="74" t="s">
+      <c r="C5" s="70" t="s">
         <v>39</v>
       </c>
       <c r="D5" s="33">
@@ -3426,8 +3416,8 @@
       </c>
     </row>
     <row r="6" spans="2:86" ht="30" customHeight="1">
-      <c r="B6" s="72"/>
-      <c r="C6" s="74"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="70"/>
       <c r="D6" s="31">
         <v>1.2</v>
       </c>
@@ -3439,8 +3429,8 @@
       </c>
     </row>
     <row r="7" spans="2:86" ht="30" customHeight="1">
-      <c r="B7" s="72"/>
-      <c r="C7" s="74"/>
+      <c r="B7" s="75"/>
+      <c r="C7" s="70"/>
       <c r="D7" s="31">
         <v>1.3</v>
       </c>
@@ -3452,8 +3442,8 @@
       </c>
     </row>
     <row r="8" spans="2:86" ht="30" customHeight="1">
-      <c r="B8" s="72"/>
-      <c r="C8" s="75"/>
+      <c r="B8" s="75"/>
+      <c r="C8" s="76"/>
       <c r="D8" s="31">
         <v>1.4</v>
       </c>
@@ -3465,8 +3455,8 @@
       </c>
     </row>
     <row r="9" spans="2:86" ht="30" customHeight="1">
-      <c r="B9" s="72"/>
-      <c r="C9" s="74"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="70"/>
       <c r="D9" s="32">
         <v>1.5</v>
       </c>
@@ -3478,10 +3468,10 @@
       </c>
     </row>
     <row r="10" spans="2:86" ht="30" customHeight="1">
-      <c r="B10" s="71">
+      <c r="B10" s="69">
         <v>2</v>
       </c>
-      <c r="C10" s="74" t="s">
+      <c r="C10" s="70" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="33">
@@ -3495,8 +3485,8 @@
       </c>
     </row>
     <row r="11" spans="2:86" ht="30" customHeight="1">
-      <c r="B11" s="71"/>
-      <c r="C11" s="74"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="70"/>
       <c r="D11" s="31">
         <v>2.2000000000000002</v>
       </c>
@@ -3506,15 +3496,15 @@
       <c r="F11" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="CF11" s="69" t="s">
+      <c r="CF11" s="71" t="s">
         <v>102</v>
       </c>
-      <c r="CG11" s="69"/>
-      <c r="CH11" s="69"/>
+      <c r="CG11" s="71"/>
+      <c r="CH11" s="71"/>
     </row>
     <row r="12" spans="2:86" ht="30" customHeight="1">
-      <c r="B12" s="71"/>
-      <c r="C12" s="74"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="70"/>
       <c r="D12" s="31">
         <v>2.2999999999999998</v>
       </c>
@@ -3526,8 +3516,8 @@
       </c>
     </row>
     <row r="13" spans="2:86" ht="30" customHeight="1">
-      <c r="B13" s="71"/>
-      <c r="C13" s="74"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="70"/>
       <c r="D13" s="31">
         <v>2.4</v>
       </c>
@@ -3539,8 +3529,8 @@
       </c>
     </row>
     <row r="14" spans="2:86" ht="30" customHeight="1">
-      <c r="B14" s="71"/>
-      <c r="C14" s="74"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="70"/>
       <c r="D14" s="32">
         <v>2.5</v>
       </c>
@@ -3552,10 +3542,10 @@
       </c>
     </row>
     <row r="15" spans="2:86" ht="30" customHeight="1">
-      <c r="B15" s="71">
+      <c r="B15" s="69">
         <v>3</v>
       </c>
-      <c r="C15" s="74" t="s">
+      <c r="C15" s="70" t="s">
         <v>8</v>
       </c>
       <c r="D15" s="33">
@@ -3569,8 +3559,8 @@
       </c>
     </row>
     <row r="16" spans="2:86" ht="30" customHeight="1">
-      <c r="B16" s="71"/>
-      <c r="C16" s="74"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="70"/>
       <c r="D16" s="31">
         <v>3.2</v>
       </c>
@@ -3582,8 +3572,8 @@
       </c>
     </row>
     <row r="17" spans="2:6" ht="30" customHeight="1">
-      <c r="B17" s="71"/>
-      <c r="C17" s="74"/>
+      <c r="B17" s="69"/>
+      <c r="C17" s="70"/>
       <c r="D17" s="32">
         <v>3.3</v>
       </c>
@@ -3595,10 +3585,10 @@
       </c>
     </row>
     <row r="18" spans="2:6" ht="30" customHeight="1">
-      <c r="B18" s="71">
+      <c r="B18" s="69">
         <v>4</v>
       </c>
-      <c r="C18" s="74" t="s">
+      <c r="C18" s="70" t="s">
         <v>53</v>
       </c>
       <c r="D18" s="33">
@@ -3612,8 +3602,8 @@
       </c>
     </row>
     <row r="19" spans="2:6" ht="30" customHeight="1">
-      <c r="B19" s="71"/>
-      <c r="C19" s="74"/>
+      <c r="B19" s="69"/>
+      <c r="C19" s="70"/>
       <c r="D19" s="31">
         <v>4.2</v>
       </c>
@@ -3625,8 +3615,8 @@
       </c>
     </row>
     <row r="20" spans="2:6" ht="30" customHeight="1">
-      <c r="B20" s="71"/>
-      <c r="C20" s="74"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="70"/>
       <c r="D20" s="31">
         <v>4.3</v>
       </c>
@@ -3638,8 +3628,8 @@
       </c>
     </row>
     <row r="21" spans="2:6" ht="30" customHeight="1">
-      <c r="B21" s="71"/>
-      <c r="C21" s="74"/>
+      <c r="B21" s="69"/>
+      <c r="C21" s="70"/>
       <c r="D21" s="32">
         <v>4.4000000000000004</v>
       </c>
@@ -3651,10 +3641,10 @@
       </c>
     </row>
     <row r="22" spans="2:6" ht="30" customHeight="1">
-      <c r="B22" s="77">
+      <c r="B22" s="72">
         <v>5</v>
       </c>
-      <c r="C22" s="78" t="s">
+      <c r="C22" s="73" t="s">
         <v>58</v>
       </c>
       <c r="D22" s="33">
@@ -3668,8 +3658,8 @@
       </c>
     </row>
     <row r="23" spans="2:6" ht="30" customHeight="1">
-      <c r="B23" s="77"/>
-      <c r="C23" s="78"/>
+      <c r="B23" s="72"/>
+      <c r="C23" s="73"/>
       <c r="D23" s="34">
         <v>5.2</v>
       </c>
@@ -3681,10 +3671,10 @@
       </c>
     </row>
     <row r="24" spans="2:6" ht="30" customHeight="1">
-      <c r="B24" s="71">
+      <c r="B24" s="69">
         <v>6</v>
       </c>
-      <c r="C24" s="74" t="s">
+      <c r="C24" s="70" t="s">
         <v>15</v>
       </c>
       <c r="D24" s="33">
@@ -3698,8 +3688,8 @@
       </c>
     </row>
     <row r="25" spans="2:6" ht="30" customHeight="1">
-      <c r="B25" s="71"/>
-      <c r="C25" s="74"/>
+      <c r="B25" s="69"/>
+      <c r="C25" s="70"/>
       <c r="D25" s="31">
         <v>6.2</v>
       </c>
@@ -3711,8 +3701,8 @@
       </c>
     </row>
     <row r="26" spans="2:6" ht="30" customHeight="1">
-      <c r="B26" s="71"/>
-      <c r="C26" s="74"/>
+      <c r="B26" s="69"/>
+      <c r="C26" s="70"/>
       <c r="D26" s="32">
         <v>6.3</v>
       </c>
@@ -3806,6 +3796,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="BO4:BQ4"/>
+    <mergeCell ref="CF4:CH4"/>
+    <mergeCell ref="CF11:CH11"/>
+    <mergeCell ref="AD4:AF4"/>
+    <mergeCell ref="AU4:AW4"/>
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="C24:C26"/>
     <mergeCell ref="Q3:R3"/>
@@ -3820,11 +3815,6 @@
     <mergeCell ref="C5:C9"/>
     <mergeCell ref="B10:B14"/>
     <mergeCell ref="C10:C14"/>
-    <mergeCell ref="BO4:BQ4"/>
-    <mergeCell ref="CF4:CH4"/>
-    <mergeCell ref="CF11:CH11"/>
-    <mergeCell ref="AD4:AF4"/>
-    <mergeCell ref="AU4:AW4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3833,293 +3823,382 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4A7B72F-86CC-4D95-8679-E8786A5203A1}">
-  <dimension ref="C4:G21"/>
+  <dimension ref="B3:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="B3" sqref="B3:G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="6.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
     <col min="4" max="4" width="17.28515625" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="41.85546875" customWidth="1"/>
-    <col min="7" max="7" width="67.28515625" customWidth="1"/>
+    <col min="5" max="5" width="55" customWidth="1"/>
+    <col min="6" max="6" width="75.140625" customWidth="1"/>
+    <col min="7" max="7" width="118" customWidth="1"/>
     <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:7">
-      <c r="C4" s="79" t="s">
+    <row r="3" spans="2:8">
+      <c r="B3" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="81"/>
-    </row>
-    <row r="5" spans="3:7">
-      <c r="C5" s="82" t="s">
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="43" t="s">
+      <c r="C4" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="43" t="s">
+      <c r="D4" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="F5" s="43" t="s">
+      <c r="E4" s="80" t="s">
         <v>82</v>
       </c>
-      <c r="G5" s="44" t="s">
+      <c r="F4" s="81" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="6" spans="3:7">
-      <c r="C6" s="71">
+      <c r="G4" s="81" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" s="82">
         <v>1</v>
       </c>
-      <c r="D6" s="74" t="s">
+      <c r="C5" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="33">
+      <c r="D5" s="31">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F6" s="48" t="s">
+      <c r="E5" s="83" t="s">
         <v>88</v>
       </c>
-      <c r="G6" s="42" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="7" spans="3:7">
-      <c r="C7" s="72"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="31">
+      <c r="F5" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" s="82"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="31">
         <v>1.2</v>
       </c>
+      <c r="E6" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="F6" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="82"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="31">
+        <v>1.3</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>143</v>
+      </c>
       <c r="F7" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="G7" s="35" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8" spans="3:7">
-      <c r="C8" s="72"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="31">
-        <v>1.3</v>
+        <v>93</v>
+      </c>
+      <c r="G7" s="84" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="82"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="31">
+        <v>1.4</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>145</v>
       </c>
       <c r="F8" s="39" t="s">
-        <v>140</v>
-      </c>
-      <c r="G8" s="35" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9" spans="3:7">
-      <c r="C9" s="73"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="32">
-        <v>1.4</v>
-      </c>
-      <c r="F9" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" s="84" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="82"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="31">
+        <v>1.5</v>
+      </c>
+      <c r="E9" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="G9" s="40" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" spans="3:7">
-      <c r="C10" s="71">
+      <c r="F9" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="82">
         <v>2</v>
       </c>
-      <c r="D10" s="74" t="s">
+      <c r="C10" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="33">
+      <c r="D10" s="31">
         <v>2.1</v>
       </c>
-      <c r="F10" s="48" t="s">
+      <c r="E10" s="83" t="s">
         <v>98</v>
       </c>
-      <c r="G10" s="42" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="11" spans="3:7">
-      <c r="C11" s="73"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="32">
+      <c r="F10" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" s="82"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="31">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F11" s="41" t="s">
+      <c r="E11" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="G11" s="40" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="12" spans="3:7">
-      <c r="C12" s="71">
+      <c r="F11" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="G11" s="85" t="s">
+        <v>151</v>
+      </c>
+      <c r="H11" s="78"/>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12" s="82">
         <v>3</v>
       </c>
-      <c r="D12" s="74" t="s">
+      <c r="C12" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="33">
+      <c r="D12" s="31">
         <v>3.1</v>
       </c>
-      <c r="F12" s="48" t="s">
+      <c r="E12" s="83" t="s">
         <v>98</v>
       </c>
-      <c r="G12" s="42" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="13" spans="3:7">
-      <c r="C13" s="72"/>
-      <c r="D13" s="75"/>
-      <c r="E13" s="31">
+      <c r="F12" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" s="82"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="31">
         <v>3.2</v>
       </c>
+      <c r="E13" s="39" t="s">
+        <v>110</v>
+      </c>
       <c r="F13" s="39" t="s">
-        <v>110</v>
-      </c>
-      <c r="G13" s="35" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="14" spans="3:7">
-      <c r="C14" s="73"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="32">
+        <v>154</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" s="82"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="31">
         <v>3.3</v>
       </c>
-      <c r="F14" s="52" t="s">
+      <c r="E14" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="G14" s="40" t="s">
+      <c r="F14" s="39" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="15" spans="3:7">
-      <c r="C15" s="71">
+      <c r="G14" s="20" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" s="82">
         <v>4</v>
       </c>
-      <c r="D15" s="74" t="s">
+      <c r="C15" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="33">
+      <c r="D15" s="31">
         <v>4.0999999999999996</v>
       </c>
-      <c r="F15" s="48" t="s">
+      <c r="E15" s="83" t="s">
         <v>98</v>
       </c>
-      <c r="G15" s="47" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="16" spans="3:7">
-      <c r="C16" s="72"/>
-      <c r="D16" s="75"/>
-      <c r="E16" s="31">
+      <c r="F15" s="45" t="s">
+        <v>157</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16" s="82"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="31">
         <v>4.2</v>
       </c>
-      <c r="F16" s="53" t="s">
+      <c r="E16" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="G16" s="35" t="s">
+      <c r="F16" s="39" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="17" spans="3:7">
-      <c r="C17" s="72"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="31">
+      <c r="G16" s="20" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="82"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="31">
         <v>4.3</v>
       </c>
+      <c r="E17" s="39" t="s">
+        <v>159</v>
+      </c>
       <c r="F17" s="39" t="s">
-        <v>114</v>
-      </c>
-      <c r="G17" s="35" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="18" spans="3:7">
-      <c r="C18" s="83">
+        <v>160</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="82">
         <v>5</v>
       </c>
-      <c r="D18" s="87" t="s">
+      <c r="C18" s="76" t="s">
         <v>58</v>
       </c>
-      <c r="E18" s="84">
+      <c r="D18" s="31">
         <v>5.0999999999999996</v>
       </c>
-      <c r="F18" s="85" t="s">
+      <c r="E18" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="G18" s="86" t="s">
+      <c r="F18" s="39" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="19" spans="3:7">
-      <c r="C19" s="71">
+      <c r="G18" s="20" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="82"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="31">
+        <v>5.2</v>
+      </c>
+      <c r="E19" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="F19" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="82">
         <v>6</v>
       </c>
-      <c r="D19" s="74" t="s">
+      <c r="C20" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="33">
+      <c r="D20" s="31">
         <v>6.1</v>
       </c>
-      <c r="F19" s="38" t="s">
+      <c r="E20" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="G19" s="42" t="s">
+      <c r="F20" s="39" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="20" spans="3:7">
-      <c r="C20" s="72"/>
-      <c r="D20" s="75"/>
-      <c r="E20" s="31">
+      <c r="G20" s="20" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="82"/>
+      <c r="C21" s="76"/>
+      <c r="D21" s="31">
         <v>6.2</v>
       </c>
-      <c r="F20" s="39" t="s">
+      <c r="E21" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="G20" s="35" t="s">
+      <c r="F21" s="39" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="21" spans="3:7">
-      <c r="C21" s="73"/>
-      <c r="D21" s="76"/>
-      <c r="E21" s="32">
+      <c r="G21" s="20" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="82"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="31">
         <v>6.3</v>
       </c>
-      <c r="F21" s="41" t="s">
-        <v>88</v>
-      </c>
-      <c r="G21" s="40" t="s">
-        <v>146</v>
+      <c r="E22" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="F22" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="13">
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="B15:B17"/>
     <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="C5:C9"/>
     <mergeCell ref="C12:C14"/>
-    <mergeCell ref="D12:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Requirement/A5-User Stories.xlsx
+++ b/Requirement/A5-User Stories.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25203"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25131"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="1694" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F73BD77D-31C1-4D87-B67B-87CB0AC621BC}"/>
+  <xr:revisionPtr revIDLastSave="1725" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4E41C67-C334-4811-93AF-0CB78D741487}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="172">
   <si>
     <t>USER STORIES</t>
   </si>
@@ -450,12 +450,18 @@
     <t>Acceptance criteria</t>
   </si>
   <si>
+    <t>Constraints</t>
+  </si>
+  <si>
     <t>So that I can access admin landing page</t>
   </si>
   <si>
     <t>When a admin give a correct credntials it landed to admin page</t>
   </si>
   <si>
+    <t>This admin page must be accessed by admin only.</t>
+  </si>
+  <si>
     <t>I want to Manage Employee</t>
   </si>
   <si>
@@ -486,6 +492,9 @@
     <t>When a requester give a correct credntials it landed to requester page</t>
   </si>
   <si>
+    <t>requester need a list of employeees under him then only he/she can raise a request</t>
+  </si>
+  <si>
     <t>whlie nominating its able to give employee details , categorize the award and  reason for the award then send the request to approver</t>
   </si>
   <si>
@@ -501,6 +510,9 @@
     <t>when view the request the approver able to approve / reject the request and send the approved list to HR</t>
   </si>
   <si>
+    <t>Approver should be an higher authority then only he / she can approve or reject</t>
+  </si>
+  <si>
     <t>Dashboard displayed the correct information of awards and awardee</t>
   </si>
   <si>
@@ -528,17 +540,20 @@
     <t>When public enters the home page , the post of recent awardee will be displayed</t>
   </si>
   <si>
-    <t>Whlie searching the award or awardee it displays the particular award or awardee</t>
+    <t>While searching the award or awardee it displays the particular award or awardee</t>
   </si>
   <si>
     <t>When public try to comment it ask to login and then it enables able to comment</t>
+  </si>
+  <si>
+    <t>public must login when they want to comment</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -613,6 +628,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -1171,6 +1192,25 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1189,15 +1229,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1210,15 +1241,18 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1234,27 +1268,14 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2972,19 +2993,19 @@
     </row>
     <row r="5" spans="3:17">
       <c r="C5" s="4"/>
-      <c r="O5" s="56" t="s">
+      <c r="O5" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="P5" s="57"/>
-      <c r="Q5" s="58"/>
+      <c r="P5" s="64"/>
+      <c r="Q5" s="65"/>
     </row>
     <row r="8" spans="3:17">
-      <c r="C8" s="67" t="s">
+      <c r="C8" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="68"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="72"/>
     </row>
     <row r="9" spans="3:17">
       <c r="C9" s="14" t="s">
@@ -3001,10 +3022,10 @@
       </c>
     </row>
     <row r="10" spans="3:17">
-      <c r="C10" s="62">
+      <c r="C10" s="60">
         <v>1</v>
       </c>
-      <c r="D10" s="59" t="s">
+      <c r="D10" s="66" t="s">
         <v>39</v>
       </c>
       <c r="E10" s="15" t="s">
@@ -3015,26 +3036,26 @@
       </c>
     </row>
     <row r="11" spans="3:17">
-      <c r="C11" s="63"/>
-      <c r="D11" s="60"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="67"/>
       <c r="E11" s="16" t="s">
         <v>42</v>
       </c>
       <c r="F11" s="25"/>
     </row>
     <row r="12" spans="3:17">
-      <c r="C12" s="64"/>
-      <c r="D12" s="61"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="68"/>
       <c r="E12" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F12" s="22"/>
     </row>
     <row r="13" spans="3:17">
-      <c r="C13" s="62">
+      <c r="C13" s="60">
         <v>2</v>
       </c>
-      <c r="D13" s="59" t="s">
+      <c r="D13" s="66" t="s">
         <v>5</v>
       </c>
       <c r="E13" s="11" t="s">
@@ -3045,172 +3066,172 @@
       </c>
     </row>
     <row r="14" spans="3:17">
-      <c r="C14" s="62"/>
-      <c r="D14" s="59"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="66"/>
       <c r="E14" s="11" t="s">
         <v>46</v>
       </c>
       <c r="F14" s="25"/>
     </row>
     <row r="15" spans="3:17">
-      <c r="C15" s="62"/>
-      <c r="D15" s="59"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="66"/>
       <c r="E15" s="11" t="s">
         <v>47</v>
       </c>
       <c r="F15" s="25"/>
     </row>
     <row r="16" spans="3:17">
-      <c r="C16" s="62"/>
-      <c r="D16" s="59"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="66"/>
       <c r="E16" s="13" t="s">
         <v>6</v>
       </c>
       <c r="F16" s="22"/>
     </row>
     <row r="17" spans="3:6">
-      <c r="C17" s="62">
+      <c r="C17" s="60">
         <v>3</v>
       </c>
-      <c r="D17" s="59" t="s">
+      <c r="D17" s="66" t="s">
         <v>8</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="F17" s="62" t="s">
+      <c r="F17" s="60" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="3:6">
-      <c r="C18" s="62"/>
-      <c r="D18" s="59"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="66"/>
       <c r="E18" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="F18" s="63"/>
+      <c r="F18" s="61"/>
     </row>
     <row r="19" spans="3:6">
-      <c r="C19" s="62"/>
-      <c r="D19" s="59"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="66"/>
       <c r="E19" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="63"/>
+      <c r="F19" s="61"/>
     </row>
     <row r="20" spans="3:6">
-      <c r="C20" s="62"/>
-      <c r="D20" s="59"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="66"/>
       <c r="E20" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="F20" s="63"/>
+      <c r="F20" s="61"/>
     </row>
     <row r="21" spans="3:6">
-      <c r="C21" s="62"/>
-      <c r="D21" s="59"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="66"/>
       <c r="E21" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="F21" s="64"/>
+      <c r="F21" s="62"/>
     </row>
     <row r="22" spans="3:6">
-      <c r="C22" s="62">
+      <c r="C22" s="60">
         <v>4</v>
       </c>
-      <c r="D22" s="59" t="s">
+      <c r="D22" s="66" t="s">
         <v>53</v>
       </c>
       <c r="E22" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="F22" s="62" t="s">
+      <c r="F22" s="60" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="23" spans="3:6">
-      <c r="C23" s="62"/>
-      <c r="D23" s="59"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="66"/>
       <c r="E23" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="F23" s="63"/>
+      <c r="F23" s="61"/>
     </row>
     <row r="24" spans="3:6">
-      <c r="C24" s="62"/>
-      <c r="D24" s="59"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="66"/>
       <c r="E24" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="F24" s="63"/>
+      <c r="F24" s="61"/>
     </row>
     <row r="25" spans="3:6">
-      <c r="C25" s="62"/>
-      <c r="D25" s="59"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="66"/>
       <c r="E25" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F25" s="64"/>
+      <c r="F25" s="62"/>
     </row>
     <row r="26" spans="3:6">
-      <c r="C26" s="66">
+      <c r="C26" s="70">
         <v>5</v>
       </c>
-      <c r="D26" s="65" t="s">
+      <c r="D26" s="69" t="s">
         <v>58</v>
       </c>
       <c r="E26" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="F26" s="62" t="s">
+      <c r="F26" s="60" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="27" spans="3:6">
-      <c r="C27" s="66"/>
-      <c r="D27" s="65"/>
+      <c r="C27" s="70"/>
+      <c r="D27" s="69"/>
       <c r="E27" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="F27" s="63"/>
+      <c r="F27" s="61"/>
     </row>
     <row r="28" spans="3:6">
-      <c r="C28" s="66"/>
-      <c r="D28" s="65"/>
+      <c r="C28" s="70"/>
+      <c r="D28" s="69"/>
       <c r="E28" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="F28" s="64"/>
+      <c r="F28" s="62"/>
     </row>
     <row r="29" spans="3:6">
-      <c r="C29" s="66">
+      <c r="C29" s="70">
         <v>6</v>
       </c>
-      <c r="D29" s="65" t="s">
+      <c r="D29" s="69" t="s">
         <v>15</v>
       </c>
       <c r="E29" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="F29" s="62" t="s">
+      <c r="F29" s="60" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="30" spans="3:6">
-      <c r="C30" s="66"/>
-      <c r="D30" s="65"/>
+      <c r="C30" s="70"/>
+      <c r="D30" s="69"/>
       <c r="E30" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="F30" s="63"/>
+      <c r="F30" s="61"/>
     </row>
     <row r="31" spans="3:6">
-      <c r="C31" s="66"/>
-      <c r="D31" s="65"/>
+      <c r="C31" s="70"/>
+      <c r="D31" s="69"/>
       <c r="E31" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="F31" s="64"/>
+      <c r="F31" s="62"/>
     </row>
     <row r="36" spans="2:6">
       <c r="F36" s="19" t="s">
@@ -3306,11 +3327,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C17:C21"/>
-    <mergeCell ref="F17:F21"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="C10:C12"/>
     <mergeCell ref="D29:D31"/>
     <mergeCell ref="C29:C31"/>
     <mergeCell ref="F29:F31"/>
@@ -3324,6 +3340,11 @@
     <mergeCell ref="C13:C16"/>
     <mergeCell ref="D13:D16"/>
     <mergeCell ref="D17:D21"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="F17:F21"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="C10:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3349,17 +3370,17 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:86" ht="30" customHeight="1">
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="Q3" s="71" t="s">
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="Q3" s="73" t="s">
         <v>80</v>
       </c>
-      <c r="R3" s="71"/>
+      <c r="R3" s="73"/>
     </row>
     <row r="4" spans="2:86" ht="30" customHeight="1">
       <c r="B4" s="46" t="s">
@@ -3377,32 +3398,32 @@
       <c r="F4" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="AD4" s="77" t="s">
+      <c r="AD4" s="74" t="s">
         <v>84</v>
       </c>
-      <c r="AE4" s="77"/>
-      <c r="AF4" s="77"/>
-      <c r="AU4" s="71" t="s">
+      <c r="AE4" s="74"/>
+      <c r="AF4" s="74"/>
+      <c r="AU4" s="73" t="s">
         <v>85</v>
       </c>
-      <c r="AV4" s="71"/>
-      <c r="AW4" s="71"/>
-      <c r="BO4" s="71" t="s">
+      <c r="AV4" s="73"/>
+      <c r="AW4" s="73"/>
+      <c r="BO4" s="73" t="s">
         <v>86</v>
       </c>
-      <c r="BP4" s="71"/>
-      <c r="BQ4" s="71"/>
-      <c r="CF4" s="71" t="s">
+      <c r="BP4" s="73"/>
+      <c r="BQ4" s="73"/>
+      <c r="CF4" s="73" t="s">
         <v>87</v>
       </c>
-      <c r="CG4" s="71"/>
-      <c r="CH4" s="71"/>
+      <c r="CG4" s="73"/>
+      <c r="CH4" s="73"/>
     </row>
     <row r="5" spans="2:86" ht="30" customHeight="1">
-      <c r="B5" s="75">
+      <c r="B5" s="80">
         <v>1</v>
       </c>
-      <c r="C5" s="70" t="s">
+      <c r="C5" s="76" t="s">
         <v>39</v>
       </c>
       <c r="D5" s="33">
@@ -3416,8 +3437,8 @@
       </c>
     </row>
     <row r="6" spans="2:86" ht="30" customHeight="1">
-      <c r="B6" s="75"/>
-      <c r="C6" s="70"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="76"/>
       <c r="D6" s="31">
         <v>1.2</v>
       </c>
@@ -3429,8 +3450,8 @@
       </c>
     </row>
     <row r="7" spans="2:86" ht="30" customHeight="1">
-      <c r="B7" s="75"/>
-      <c r="C7" s="70"/>
+      <c r="B7" s="80"/>
+      <c r="C7" s="76"/>
       <c r="D7" s="31">
         <v>1.3</v>
       </c>
@@ -3442,8 +3463,8 @@
       </c>
     </row>
     <row r="8" spans="2:86" ht="30" customHeight="1">
-      <c r="B8" s="75"/>
-      <c r="C8" s="76"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="81"/>
       <c r="D8" s="31">
         <v>1.4</v>
       </c>
@@ -3455,8 +3476,8 @@
       </c>
     </row>
     <row r="9" spans="2:86" ht="30" customHeight="1">
-      <c r="B9" s="75"/>
-      <c r="C9" s="70"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="76"/>
       <c r="D9" s="32">
         <v>1.5</v>
       </c>
@@ -3468,10 +3489,10 @@
       </c>
     </row>
     <row r="10" spans="2:86" ht="30" customHeight="1">
-      <c r="B10" s="69">
+      <c r="B10" s="75">
         <v>2</v>
       </c>
-      <c r="C10" s="70" t="s">
+      <c r="C10" s="76" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="33">
@@ -3485,8 +3506,8 @@
       </c>
     </row>
     <row r="11" spans="2:86" ht="30" customHeight="1">
-      <c r="B11" s="69"/>
-      <c r="C11" s="70"/>
+      <c r="B11" s="75"/>
+      <c r="C11" s="76"/>
       <c r="D11" s="31">
         <v>2.2000000000000002</v>
       </c>
@@ -3496,15 +3517,15 @@
       <c r="F11" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="CF11" s="71" t="s">
+      <c r="CF11" s="73" t="s">
         <v>102</v>
       </c>
-      <c r="CG11" s="71"/>
-      <c r="CH11" s="71"/>
+      <c r="CG11" s="73"/>
+      <c r="CH11" s="73"/>
     </row>
     <row r="12" spans="2:86" ht="30" customHeight="1">
-      <c r="B12" s="69"/>
-      <c r="C12" s="70"/>
+      <c r="B12" s="75"/>
+      <c r="C12" s="76"/>
       <c r="D12" s="31">
         <v>2.2999999999999998</v>
       </c>
@@ -3516,8 +3537,8 @@
       </c>
     </row>
     <row r="13" spans="2:86" ht="30" customHeight="1">
-      <c r="B13" s="69"/>
-      <c r="C13" s="70"/>
+      <c r="B13" s="75"/>
+      <c r="C13" s="76"/>
       <c r="D13" s="31">
         <v>2.4</v>
       </c>
@@ -3529,8 +3550,8 @@
       </c>
     </row>
     <row r="14" spans="2:86" ht="30" customHeight="1">
-      <c r="B14" s="69"/>
-      <c r="C14" s="70"/>
+      <c r="B14" s="75"/>
+      <c r="C14" s="76"/>
       <c r="D14" s="32">
         <v>2.5</v>
       </c>
@@ -3542,10 +3563,10 @@
       </c>
     </row>
     <row r="15" spans="2:86" ht="30" customHeight="1">
-      <c r="B15" s="69">
+      <c r="B15" s="75">
         <v>3</v>
       </c>
-      <c r="C15" s="70" t="s">
+      <c r="C15" s="76" t="s">
         <v>8</v>
       </c>
       <c r="D15" s="33">
@@ -3559,8 +3580,8 @@
       </c>
     </row>
     <row r="16" spans="2:86" ht="30" customHeight="1">
-      <c r="B16" s="69"/>
-      <c r="C16" s="70"/>
+      <c r="B16" s="75"/>
+      <c r="C16" s="76"/>
       <c r="D16" s="31">
         <v>3.2</v>
       </c>
@@ -3572,8 +3593,8 @@
       </c>
     </row>
     <row r="17" spans="2:6" ht="30" customHeight="1">
-      <c r="B17" s="69"/>
-      <c r="C17" s="70"/>
+      <c r="B17" s="75"/>
+      <c r="C17" s="76"/>
       <c r="D17" s="32">
         <v>3.3</v>
       </c>
@@ -3585,10 +3606,10 @@
       </c>
     </row>
     <row r="18" spans="2:6" ht="30" customHeight="1">
-      <c r="B18" s="69">
+      <c r="B18" s="75">
         <v>4</v>
       </c>
-      <c r="C18" s="70" t="s">
+      <c r="C18" s="76" t="s">
         <v>53</v>
       </c>
       <c r="D18" s="33">
@@ -3602,8 +3623,8 @@
       </c>
     </row>
     <row r="19" spans="2:6" ht="30" customHeight="1">
-      <c r="B19" s="69"/>
-      <c r="C19" s="70"/>
+      <c r="B19" s="75"/>
+      <c r="C19" s="76"/>
       <c r="D19" s="31">
         <v>4.2</v>
       </c>
@@ -3615,8 +3636,8 @@
       </c>
     </row>
     <row r="20" spans="2:6" ht="30" customHeight="1">
-      <c r="B20" s="69"/>
-      <c r="C20" s="70"/>
+      <c r="B20" s="75"/>
+      <c r="C20" s="76"/>
       <c r="D20" s="31">
         <v>4.3</v>
       </c>
@@ -3628,8 +3649,8 @@
       </c>
     </row>
     <row r="21" spans="2:6" ht="30" customHeight="1">
-      <c r="B21" s="69"/>
-      <c r="C21" s="70"/>
+      <c r="B21" s="75"/>
+      <c r="C21" s="76"/>
       <c r="D21" s="32">
         <v>4.4000000000000004</v>
       </c>
@@ -3641,10 +3662,10 @@
       </c>
     </row>
     <row r="22" spans="2:6" ht="30" customHeight="1">
-      <c r="B22" s="72">
+      <c r="B22" s="77">
         <v>5</v>
       </c>
-      <c r="C22" s="73" t="s">
+      <c r="C22" s="78" t="s">
         <v>58</v>
       </c>
       <c r="D22" s="33">
@@ -3658,8 +3679,8 @@
       </c>
     </row>
     <row r="23" spans="2:6" ht="30" customHeight="1">
-      <c r="B23" s="72"/>
-      <c r="C23" s="73"/>
+      <c r="B23" s="77"/>
+      <c r="C23" s="78"/>
       <c r="D23" s="34">
         <v>5.2</v>
       </c>
@@ -3671,10 +3692,10 @@
       </c>
     </row>
     <row r="24" spans="2:6" ht="30" customHeight="1">
-      <c r="B24" s="69">
+      <c r="B24" s="75">
         <v>6</v>
       </c>
-      <c r="C24" s="70" t="s">
+      <c r="C24" s="76" t="s">
         <v>15</v>
       </c>
       <c r="D24" s="33">
@@ -3688,8 +3709,8 @@
       </c>
     </row>
     <row r="25" spans="2:6" ht="30" customHeight="1">
-      <c r="B25" s="69"/>
-      <c r="C25" s="70"/>
+      <c r="B25" s="75"/>
+      <c r="C25" s="76"/>
       <c r="D25" s="31">
         <v>6.2</v>
       </c>
@@ -3701,8 +3722,8 @@
       </c>
     </row>
     <row r="26" spans="2:6" ht="30" customHeight="1">
-      <c r="B26" s="69"/>
-      <c r="C26" s="70"/>
+      <c r="B26" s="75"/>
+      <c r="C26" s="76"/>
       <c r="D26" s="32">
         <v>6.3</v>
       </c>
@@ -3796,11 +3817,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="BO4:BQ4"/>
-    <mergeCell ref="CF4:CH4"/>
-    <mergeCell ref="CF11:CH11"/>
-    <mergeCell ref="AD4:AF4"/>
-    <mergeCell ref="AU4:AW4"/>
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="C24:C26"/>
     <mergeCell ref="Q3:R3"/>
@@ -3815,6 +3831,11 @@
     <mergeCell ref="C5:C9"/>
     <mergeCell ref="B10:B14"/>
     <mergeCell ref="C10:C14"/>
+    <mergeCell ref="BO4:BQ4"/>
+    <mergeCell ref="CF4:CH4"/>
+    <mergeCell ref="CF11:CH11"/>
+    <mergeCell ref="AD4:AF4"/>
+    <mergeCell ref="AU4:AW4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3825,8 +3846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4A7B72F-86CC-4D95-8679-E8786A5203A1}">
   <dimension ref="B3:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:G22"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3837,111 +3858,121 @@
     <col min="4" max="4" width="17.28515625" customWidth="1"/>
     <col min="5" max="5" width="55" customWidth="1"/>
     <col min="6" max="6" width="75.140625" customWidth="1"/>
-    <col min="7" max="7" width="118" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="119.85546875" customWidth="1"/>
+    <col min="8" max="8" width="71.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:8">
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
     </row>
     <row r="4" spans="2:8">
-      <c r="B4" s="80" t="s">
+      <c r="B4" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="80" t="s">
+      <c r="C4" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="80" t="s">
+      <c r="D4" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="E4" s="80" t="s">
+      <c r="E4" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="F4" s="81" t="s">
+      <c r="F4" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="G4" s="81" t="s">
+      <c r="G4" s="57" t="s">
         <v>138</v>
+      </c>
+      <c r="H4" s="85" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="2:8">
       <c r="B5" s="82">
         <v>1</v>
       </c>
-      <c r="C5" s="76" t="s">
+      <c r="C5" s="81" t="s">
         <v>39</v>
       </c>
       <c r="D5" s="31">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E5" s="83" t="s">
+      <c r="E5" s="58" t="s">
         <v>88</v>
       </c>
       <c r="F5" s="39" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="2:8">
       <c r="B6" s="82"/>
-      <c r="C6" s="76"/>
+      <c r="C6" s="81"/>
       <c r="D6" s="31">
         <v>1.2</v>
       </c>
       <c r="E6" s="39" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F6" s="39" t="s">
         <v>91</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>142</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="H6" s="20"/>
     </row>
     <row r="7" spans="2:8">
       <c r="B7" s="82"/>
-      <c r="C7" s="76"/>
+      <c r="C7" s="81"/>
       <c r="D7" s="31">
         <v>1.3</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F7" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="G7" s="84" t="s">
-        <v>144</v>
-      </c>
+      <c r="G7" s="59" t="s">
+        <v>146</v>
+      </c>
+      <c r="H7" s="20"/>
     </row>
     <row r="8" spans="2:8">
       <c r="B8" s="82"/>
-      <c r="C8" s="76"/>
+      <c r="C8" s="81"/>
       <c r="D8" s="31">
         <v>1.4</v>
       </c>
       <c r="E8" s="39" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F8" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="G8" s="84" t="s">
-        <v>146</v>
-      </c>
+      <c r="G8" s="59" t="s">
+        <v>148</v>
+      </c>
+      <c r="H8" s="20"/>
     </row>
     <row r="9" spans="2:8">
       <c r="B9" s="82"/>
-      <c r="C9" s="76"/>
+      <c r="C9" s="81"/>
       <c r="D9" s="31">
         <v>1.5</v>
       </c>
@@ -3949,35 +3980,39 @@
         <v>96</v>
       </c>
       <c r="F9" s="39" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>148</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="H9" s="20"/>
     </row>
     <row r="10" spans="2:8">
       <c r="B10" s="82">
         <v>2</v>
       </c>
-      <c r="C10" s="76" t="s">
+      <c r="C10" s="81" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="31">
         <v>2.1</v>
       </c>
-      <c r="E10" s="83" t="s">
+      <c r="E10" s="58" t="s">
         <v>98</v>
       </c>
       <c r="F10" s="39" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>150</v>
+        <v>152</v>
+      </c>
+      <c r="H10" s="84" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="2:8">
       <c r="B11" s="82"/>
-      <c r="C11" s="76"/>
+      <c r="C11" s="81"/>
       <c r="D11" s="31">
         <v>2.2000000000000002</v>
       </c>
@@ -3987,34 +4022,35 @@
       <c r="F11" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="G11" s="85" t="s">
-        <v>151</v>
-      </c>
-      <c r="H11" s="78"/>
+      <c r="G11" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="H11" s="20"/>
     </row>
     <row r="12" spans="2:8">
       <c r="B12" s="82">
         <v>3</v>
       </c>
-      <c r="C12" s="76" t="s">
+      <c r="C12" s="81" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="31">
         <v>3.1</v>
       </c>
-      <c r="E12" s="83" t="s">
+      <c r="E12" s="58" t="s">
         <v>98</v>
       </c>
       <c r="F12" s="39" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>153</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="H12" s="20"/>
     </row>
     <row r="13" spans="2:8">
       <c r="B13" s="82"/>
-      <c r="C13" s="76"/>
+      <c r="C13" s="81"/>
       <c r="D13" s="31">
         <v>3.2</v>
       </c>
@@ -4022,15 +4058,18 @@
         <v>110</v>
       </c>
       <c r="F13" s="39" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>155</v>
+        <v>158</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="2:8">
       <c r="B14" s="82"/>
-      <c r="C14" s="76"/>
+      <c r="C14" s="81"/>
       <c r="D14" s="31">
         <v>3.3</v>
       </c>
@@ -4041,32 +4080,34 @@
         <v>112</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>156</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="H14" s="20"/>
     </row>
     <row r="15" spans="2:8">
       <c r="B15" s="82">
         <v>4</v>
       </c>
-      <c r="C15" s="76" t="s">
+      <c r="C15" s="81" t="s">
         <v>53</v>
       </c>
       <c r="D15" s="31">
         <v>4.0999999999999996</v>
       </c>
-      <c r="E15" s="83" t="s">
+      <c r="E15" s="58" t="s">
         <v>98</v>
       </c>
       <c r="F15" s="45" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>158</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="H15" s="20"/>
     </row>
     <row r="16" spans="2:8">
       <c r="B16" s="82"/>
-      <c r="C16" s="76"/>
+      <c r="C16" s="81"/>
       <c r="D16" s="31">
         <v>4.2</v>
       </c>
@@ -4077,30 +4118,32 @@
         <v>112</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7">
+        <v>160</v>
+      </c>
+      <c r="H16" s="20"/>
+    </row>
+    <row r="17" spans="2:8">
       <c r="B17" s="82"/>
-      <c r="C17" s="76"/>
+      <c r="C17" s="81"/>
       <c r="D17" s="31">
         <v>4.3</v>
       </c>
       <c r="E17" s="39" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="F17" s="39" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7">
+        <v>165</v>
+      </c>
+      <c r="H17" s="20"/>
+    </row>
+    <row r="18" spans="2:8">
       <c r="B18" s="82">
         <v>5</v>
       </c>
-      <c r="C18" s="76" t="s">
+      <c r="C18" s="81" t="s">
         <v>58</v>
       </c>
       <c r="D18" s="31">
@@ -4113,12 +4156,13 @@
         <v>119</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7">
+        <v>166</v>
+      </c>
+      <c r="H18" s="20"/>
+    </row>
+    <row r="19" spans="2:8">
       <c r="B19" s="82"/>
-      <c r="C19" s="76"/>
+      <c r="C19" s="81"/>
       <c r="D19" s="31">
         <v>5.2</v>
       </c>
@@ -4129,14 +4173,15 @@
         <v>121</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7">
+        <v>167</v>
+      </c>
+      <c r="H19" s="20"/>
+    </row>
+    <row r="20" spans="2:8">
       <c r="B20" s="82">
         <v>6</v>
       </c>
-      <c r="C20" s="76" t="s">
+      <c r="C20" s="81" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="31">
@@ -4149,12 +4194,13 @@
         <v>123</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7">
+        <v>168</v>
+      </c>
+      <c r="H20" s="20"/>
+    </row>
+    <row r="21" spans="2:8">
       <c r="B21" s="82"/>
-      <c r="C21" s="76"/>
+      <c r="C21" s="81"/>
       <c r="D21" s="31">
         <v>6.2</v>
       </c>
@@ -4165,12 +4211,13 @@
         <v>125</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7">
+        <v>169</v>
+      </c>
+      <c r="H21" s="20"/>
+    </row>
+    <row r="22" spans="2:8">
       <c r="B22" s="82"/>
-      <c r="C22" s="76"/>
+      <c r="C22" s="81"/>
       <c r="D22" s="31">
         <v>6.3</v>
       </c>
@@ -4181,14 +4228,16 @@
         <v>127</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>166</v>
+        <v>170</v>
+      </c>
+      <c r="H22" s="20" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="C20:C22"/>
-    <mergeCell ref="B3:G3"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="B15:B17"/>
@@ -4199,6 +4248,7 @@
     <mergeCell ref="B5:B9"/>
     <mergeCell ref="C5:C9"/>
     <mergeCell ref="C12:C14"/>
+    <mergeCell ref="B3:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Requirement/A5-User Stories.xlsx
+++ b/Requirement/A5-User Stories.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25203"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="1725" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4E41C67-C334-4811-93AF-0CB78D741487}"/>
+  <xr:revisionPtr revIDLastSave="1873" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{600403D0-283F-4874-BF5C-1812B1875A55}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Day 1" sheetId="2" r:id="rId1"/>
-    <sheet name="Day 2" sheetId="3" r:id="rId2"/>
-    <sheet name="Day 3" sheetId="5" r:id="rId3"/>
-    <sheet name="Day 4" sheetId="6" r:id="rId4"/>
+    <sheet name="04-04-2022" sheetId="2" r:id="rId1"/>
+    <sheet name="05-04-2022" sheetId="3" r:id="rId2"/>
+    <sheet name="06-04-2022" sheetId="5" r:id="rId3"/>
+    <sheet name="07-04-2022" sheetId="6" r:id="rId4"/>
+    <sheet name="08-04-2022" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="196">
   <si>
     <t>USER STORIES</t>
   </si>
@@ -547,6 +548,78 @@
   </si>
   <si>
     <t>public must login when they want to comment</t>
+  </si>
+  <si>
+    <t>Assumption</t>
+  </si>
+  <si>
+    <t>Public is an empoloyee in the organisation</t>
+  </si>
+  <si>
+    <t>Public should login to comment on the post</t>
+  </si>
+  <si>
+    <t>DEPENDENCY</t>
+  </si>
+  <si>
+    <t>Features</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Dashboard</t>
+  </si>
+  <si>
+    <t>Story 1.1</t>
+  </si>
+  <si>
+    <t>Story 3.3</t>
+  </si>
+  <si>
+    <t>Story 2.1</t>
+  </si>
+  <si>
+    <t>Story 4.2</t>
+  </si>
+  <si>
+    <t>Story 3.1</t>
+  </si>
+  <si>
+    <t>Story 4.1</t>
+  </si>
+  <si>
+    <t>Story 6.3</t>
+  </si>
+  <si>
+    <t>User Stories</t>
+  </si>
+  <si>
+    <t>Story 1.2 &amp; 1.3</t>
+  </si>
+  <si>
+    <t>Story 2.2</t>
+  </si>
+  <si>
+    <t>Story 3.2</t>
+  </si>
+  <si>
+    <t>Story 4.3</t>
+  </si>
+  <si>
+    <t>Story 5.1</t>
+  </si>
+  <si>
+    <t>Story 5.2</t>
+  </si>
+  <si>
+    <t>Story 6.1</t>
+  </si>
+  <si>
+    <t>Public is an employee in the organisation</t>
+  </si>
+  <si>
+    <t>By default dashboard shows the correct information of awards and awardee</t>
   </si>
 </sst>
 </file>
@@ -691,7 +764,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -1035,11 +1108,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1202,6 +1306,47 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1211,24 +1356,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1274,8 +1401,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2993,19 +3122,19 @@
     </row>
     <row r="5" spans="3:17">
       <c r="C5" s="4"/>
-      <c r="O5" s="63" t="s">
+      <c r="O5" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="P5" s="64"/>
-      <c r="Q5" s="65"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="75"/>
     </row>
     <row r="8" spans="3:17">
-      <c r="C8" s="71" t="s">
+      <c r="C8" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="72"/>
+      <c r="D8" s="84"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="85"/>
     </row>
     <row r="9" spans="3:17">
       <c r="C9" s="14" t="s">
@@ -3022,10 +3151,10 @@
       </c>
     </row>
     <row r="10" spans="3:17">
-      <c r="C10" s="60">
+      <c r="C10" s="79">
         <v>1</v>
       </c>
-      <c r="D10" s="66" t="s">
+      <c r="D10" s="76" t="s">
         <v>39</v>
       </c>
       <c r="E10" s="15" t="s">
@@ -3036,26 +3165,26 @@
       </c>
     </row>
     <row r="11" spans="3:17">
-      <c r="C11" s="61"/>
-      <c r="D11" s="67"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="77"/>
       <c r="E11" s="16" t="s">
         <v>42</v>
       </c>
       <c r="F11" s="25"/>
     </row>
     <row r="12" spans="3:17">
-      <c r="C12" s="62"/>
-      <c r="D12" s="68"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="78"/>
       <c r="E12" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F12" s="22"/>
     </row>
     <row r="13" spans="3:17">
-      <c r="C13" s="60">
+      <c r="C13" s="79">
         <v>2</v>
       </c>
-      <c r="D13" s="66" t="s">
+      <c r="D13" s="76" t="s">
         <v>5</v>
       </c>
       <c r="E13" s="11" t="s">
@@ -3066,172 +3195,172 @@
       </c>
     </row>
     <row r="14" spans="3:17">
-      <c r="C14" s="60"/>
-      <c r="D14" s="66"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="76"/>
       <c r="E14" s="11" t="s">
         <v>46</v>
       </c>
       <c r="F14" s="25"/>
     </row>
     <row r="15" spans="3:17">
-      <c r="C15" s="60"/>
-      <c r="D15" s="66"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="76"/>
       <c r="E15" s="11" t="s">
         <v>47</v>
       </c>
       <c r="F15" s="25"/>
     </row>
     <row r="16" spans="3:17">
-      <c r="C16" s="60"/>
-      <c r="D16" s="66"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="76"/>
       <c r="E16" s="13" t="s">
         <v>6</v>
       </c>
       <c r="F16" s="22"/>
     </row>
     <row r="17" spans="3:6">
-      <c r="C17" s="60">
+      <c r="C17" s="79">
         <v>3</v>
       </c>
-      <c r="D17" s="66" t="s">
+      <c r="D17" s="76" t="s">
         <v>8</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="F17" s="60" t="s">
+      <c r="F17" s="79" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="3:6">
-      <c r="C18" s="60"/>
-      <c r="D18" s="66"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="76"/>
       <c r="E18" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="F18" s="61"/>
+      <c r="F18" s="80"/>
     </row>
     <row r="19" spans="3:6">
-      <c r="C19" s="60"/>
-      <c r="D19" s="66"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="76"/>
       <c r="E19" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="61"/>
+      <c r="F19" s="80"/>
     </row>
     <row r="20" spans="3:6">
-      <c r="C20" s="60"/>
-      <c r="D20" s="66"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="76"/>
       <c r="E20" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="F20" s="61"/>
+      <c r="F20" s="80"/>
     </row>
     <row r="21" spans="3:6">
-      <c r="C21" s="60"/>
-      <c r="D21" s="66"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="76"/>
       <c r="E21" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="F21" s="62"/>
+      <c r="F21" s="81"/>
     </row>
     <row r="22" spans="3:6">
-      <c r="C22" s="60">
+      <c r="C22" s="79">
         <v>4</v>
       </c>
-      <c r="D22" s="66" t="s">
+      <c r="D22" s="76" t="s">
         <v>53</v>
       </c>
       <c r="E22" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="F22" s="60" t="s">
+      <c r="F22" s="79" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="23" spans="3:6">
-      <c r="C23" s="60"/>
-      <c r="D23" s="66"/>
+      <c r="C23" s="79"/>
+      <c r="D23" s="76"/>
       <c r="E23" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="F23" s="61"/>
+      <c r="F23" s="80"/>
     </row>
     <row r="24" spans="3:6">
-      <c r="C24" s="60"/>
-      <c r="D24" s="66"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="76"/>
       <c r="E24" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="F24" s="61"/>
+      <c r="F24" s="80"/>
     </row>
     <row r="25" spans="3:6">
-      <c r="C25" s="60"/>
-      <c r="D25" s="66"/>
+      <c r="C25" s="79"/>
+      <c r="D25" s="76"/>
       <c r="E25" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F25" s="62"/>
+      <c r="F25" s="81"/>
     </row>
     <row r="26" spans="3:6">
-      <c r="C26" s="70">
+      <c r="C26" s="83">
         <v>5</v>
       </c>
-      <c r="D26" s="69" t="s">
+      <c r="D26" s="82" t="s">
         <v>58</v>
       </c>
       <c r="E26" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="F26" s="60" t="s">
+      <c r="F26" s="79" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="27" spans="3:6">
-      <c r="C27" s="70"/>
-      <c r="D27" s="69"/>
+      <c r="C27" s="83"/>
+      <c r="D27" s="82"/>
       <c r="E27" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="F27" s="61"/>
+      <c r="F27" s="80"/>
     </row>
     <row r="28" spans="3:6">
-      <c r="C28" s="70"/>
-      <c r="D28" s="69"/>
+      <c r="C28" s="83"/>
+      <c r="D28" s="82"/>
       <c r="E28" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="F28" s="62"/>
+      <c r="F28" s="81"/>
     </row>
     <row r="29" spans="3:6">
-      <c r="C29" s="70">
+      <c r="C29" s="83">
         <v>6</v>
       </c>
-      <c r="D29" s="69" t="s">
+      <c r="D29" s="82" t="s">
         <v>15</v>
       </c>
       <c r="E29" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="F29" s="60" t="s">
+      <c r="F29" s="79" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="30" spans="3:6">
-      <c r="C30" s="70"/>
-      <c r="D30" s="69"/>
+      <c r="C30" s="83"/>
+      <c r="D30" s="82"/>
       <c r="E30" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="F30" s="61"/>
+      <c r="F30" s="80"/>
     </row>
     <row r="31" spans="3:6">
-      <c r="C31" s="70"/>
-      <c r="D31" s="69"/>
+      <c r="C31" s="83"/>
+      <c r="D31" s="82"/>
       <c r="E31" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="F31" s="62"/>
+      <c r="F31" s="81"/>
     </row>
     <row r="36" spans="2:6">
       <c r="F36" s="19" t="s">
@@ -3327,6 +3456,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="F17:F21"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="C10:C12"/>
     <mergeCell ref="D29:D31"/>
     <mergeCell ref="C29:C31"/>
     <mergeCell ref="F29:F31"/>
@@ -3340,11 +3474,6 @@
     <mergeCell ref="C13:C16"/>
     <mergeCell ref="D13:D16"/>
     <mergeCell ref="D17:D21"/>
-    <mergeCell ref="C17:C21"/>
-    <mergeCell ref="F17:F21"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="C10:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3355,8 +3484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1F59750-DACF-4F6C-8621-BEF568401F46}">
   <dimension ref="B3:CH53"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:F26"/>
+    <sheetView topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3370,17 +3499,17 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:86" ht="30" customHeight="1">
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="Q3" s="73" t="s">
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="Q3" s="86" t="s">
         <v>80</v>
       </c>
-      <c r="R3" s="73"/>
+      <c r="R3" s="86"/>
     </row>
     <row r="4" spans="2:86" ht="30" customHeight="1">
       <c r="B4" s="46" t="s">
@@ -3398,32 +3527,32 @@
       <c r="F4" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="AD4" s="74" t="s">
+      <c r="AD4" s="87" t="s">
         <v>84</v>
       </c>
-      <c r="AE4" s="74"/>
-      <c r="AF4" s="74"/>
-      <c r="AU4" s="73" t="s">
+      <c r="AE4" s="87"/>
+      <c r="AF4" s="87"/>
+      <c r="AU4" s="86" t="s">
         <v>85</v>
       </c>
-      <c r="AV4" s="73"/>
-      <c r="AW4" s="73"/>
-      <c r="BO4" s="73" t="s">
+      <c r="AV4" s="86"/>
+      <c r="AW4" s="86"/>
+      <c r="BO4" s="86" t="s">
         <v>86</v>
       </c>
-      <c r="BP4" s="73"/>
-      <c r="BQ4" s="73"/>
-      <c r="CF4" s="73" t="s">
+      <c r="BP4" s="86"/>
+      <c r="BQ4" s="86"/>
+      <c r="CF4" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="CG4" s="73"/>
-      <c r="CH4" s="73"/>
+      <c r="CG4" s="86"/>
+      <c r="CH4" s="86"/>
     </row>
     <row r="5" spans="2:86" ht="30" customHeight="1">
-      <c r="B5" s="80">
+      <c r="B5" s="93">
         <v>1</v>
       </c>
-      <c r="C5" s="76" t="s">
+      <c r="C5" s="89" t="s">
         <v>39</v>
       </c>
       <c r="D5" s="33">
@@ -3437,8 +3566,8 @@
       </c>
     </row>
     <row r="6" spans="2:86" ht="30" customHeight="1">
-      <c r="B6" s="80"/>
-      <c r="C6" s="76"/>
+      <c r="B6" s="93"/>
+      <c r="C6" s="89"/>
       <c r="D6" s="31">
         <v>1.2</v>
       </c>
@@ -3450,8 +3579,8 @@
       </c>
     </row>
     <row r="7" spans="2:86" ht="30" customHeight="1">
-      <c r="B7" s="80"/>
-      <c r="C7" s="76"/>
+      <c r="B7" s="93"/>
+      <c r="C7" s="89"/>
       <c r="D7" s="31">
         <v>1.3</v>
       </c>
@@ -3463,8 +3592,8 @@
       </c>
     </row>
     <row r="8" spans="2:86" ht="30" customHeight="1">
-      <c r="B8" s="80"/>
-      <c r="C8" s="81"/>
+      <c r="B8" s="93"/>
+      <c r="C8" s="94"/>
       <c r="D8" s="31">
         <v>1.4</v>
       </c>
@@ -3476,8 +3605,8 @@
       </c>
     </row>
     <row r="9" spans="2:86" ht="30" customHeight="1">
-      <c r="B9" s="80"/>
-      <c r="C9" s="76"/>
+      <c r="B9" s="93"/>
+      <c r="C9" s="89"/>
       <c r="D9" s="32">
         <v>1.5</v>
       </c>
@@ -3489,10 +3618,10 @@
       </c>
     </row>
     <row r="10" spans="2:86" ht="30" customHeight="1">
-      <c r="B10" s="75">
+      <c r="B10" s="88">
         <v>2</v>
       </c>
-      <c r="C10" s="76" t="s">
+      <c r="C10" s="89" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="33">
@@ -3506,8 +3635,8 @@
       </c>
     </row>
     <row r="11" spans="2:86" ht="30" customHeight="1">
-      <c r="B11" s="75"/>
-      <c r="C11" s="76"/>
+      <c r="B11" s="88"/>
+      <c r="C11" s="89"/>
       <c r="D11" s="31">
         <v>2.2000000000000002</v>
       </c>
@@ -3517,15 +3646,15 @@
       <c r="F11" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="CF11" s="73" t="s">
+      <c r="CF11" s="86" t="s">
         <v>102</v>
       </c>
-      <c r="CG11" s="73"/>
-      <c r="CH11" s="73"/>
+      <c r="CG11" s="86"/>
+      <c r="CH11" s="86"/>
     </row>
     <row r="12" spans="2:86" ht="30" customHeight="1">
-      <c r="B12" s="75"/>
-      <c r="C12" s="76"/>
+      <c r="B12" s="88"/>
+      <c r="C12" s="89"/>
       <c r="D12" s="31">
         <v>2.2999999999999998</v>
       </c>
@@ -3537,8 +3666,8 @@
       </c>
     </row>
     <row r="13" spans="2:86" ht="30" customHeight="1">
-      <c r="B13" s="75"/>
-      <c r="C13" s="76"/>
+      <c r="B13" s="88"/>
+      <c r="C13" s="89"/>
       <c r="D13" s="31">
         <v>2.4</v>
       </c>
@@ -3550,8 +3679,8 @@
       </c>
     </row>
     <row r="14" spans="2:86" ht="30" customHeight="1">
-      <c r="B14" s="75"/>
-      <c r="C14" s="76"/>
+      <c r="B14" s="88"/>
+      <c r="C14" s="89"/>
       <c r="D14" s="32">
         <v>2.5</v>
       </c>
@@ -3563,10 +3692,10 @@
       </c>
     </row>
     <row r="15" spans="2:86" ht="30" customHeight="1">
-      <c r="B15" s="75">
+      <c r="B15" s="88">
         <v>3</v>
       </c>
-      <c r="C15" s="76" t="s">
+      <c r="C15" s="89" t="s">
         <v>8</v>
       </c>
       <c r="D15" s="33">
@@ -3580,8 +3709,8 @@
       </c>
     </row>
     <row r="16" spans="2:86" ht="30" customHeight="1">
-      <c r="B16" s="75"/>
-      <c r="C16" s="76"/>
+      <c r="B16" s="88"/>
+      <c r="C16" s="89"/>
       <c r="D16" s="31">
         <v>3.2</v>
       </c>
@@ -3593,8 +3722,8 @@
       </c>
     </row>
     <row r="17" spans="2:6" ht="30" customHeight="1">
-      <c r="B17" s="75"/>
-      <c r="C17" s="76"/>
+      <c r="B17" s="88"/>
+      <c r="C17" s="89"/>
       <c r="D17" s="32">
         <v>3.3</v>
       </c>
@@ -3606,10 +3735,10 @@
       </c>
     </row>
     <row r="18" spans="2:6" ht="30" customHeight="1">
-      <c r="B18" s="75">
+      <c r="B18" s="88">
         <v>4</v>
       </c>
-      <c r="C18" s="76" t="s">
+      <c r="C18" s="89" t="s">
         <v>53</v>
       </c>
       <c r="D18" s="33">
@@ -3623,8 +3752,8 @@
       </c>
     </row>
     <row r="19" spans="2:6" ht="30" customHeight="1">
-      <c r="B19" s="75"/>
-      <c r="C19" s="76"/>
+      <c r="B19" s="88"/>
+      <c r="C19" s="89"/>
       <c r="D19" s="31">
         <v>4.2</v>
       </c>
@@ -3636,8 +3765,8 @@
       </c>
     </row>
     <row r="20" spans="2:6" ht="30" customHeight="1">
-      <c r="B20" s="75"/>
-      <c r="C20" s="76"/>
+      <c r="B20" s="88"/>
+      <c r="C20" s="89"/>
       <c r="D20" s="31">
         <v>4.3</v>
       </c>
@@ -3649,8 +3778,8 @@
       </c>
     </row>
     <row r="21" spans="2:6" ht="30" customHeight="1">
-      <c r="B21" s="75"/>
-      <c r="C21" s="76"/>
+      <c r="B21" s="88"/>
+      <c r="C21" s="89"/>
       <c r="D21" s="32">
         <v>4.4000000000000004</v>
       </c>
@@ -3662,10 +3791,10 @@
       </c>
     </row>
     <row r="22" spans="2:6" ht="30" customHeight="1">
-      <c r="B22" s="77">
+      <c r="B22" s="90">
         <v>5</v>
       </c>
-      <c r="C22" s="78" t="s">
+      <c r="C22" s="91" t="s">
         <v>58</v>
       </c>
       <c r="D22" s="33">
@@ -3679,8 +3808,8 @@
       </c>
     </row>
     <row r="23" spans="2:6" ht="30" customHeight="1">
-      <c r="B23" s="77"/>
-      <c r="C23" s="78"/>
+      <c r="B23" s="90"/>
+      <c r="C23" s="91"/>
       <c r="D23" s="34">
         <v>5.2</v>
       </c>
@@ -3692,10 +3821,10 @@
       </c>
     </row>
     <row r="24" spans="2:6" ht="30" customHeight="1">
-      <c r="B24" s="75">
+      <c r="B24" s="88">
         <v>6</v>
       </c>
-      <c r="C24" s="76" t="s">
+      <c r="C24" s="89" t="s">
         <v>15</v>
       </c>
       <c r="D24" s="33">
@@ -3709,8 +3838,8 @@
       </c>
     </row>
     <row r="25" spans="2:6" ht="30" customHeight="1">
-      <c r="B25" s="75"/>
-      <c r="C25" s="76"/>
+      <c r="B25" s="88"/>
+      <c r="C25" s="89"/>
       <c r="D25" s="31">
         <v>6.2</v>
       </c>
@@ -3722,8 +3851,8 @@
       </c>
     </row>
     <row r="26" spans="2:6" ht="30" customHeight="1">
-      <c r="B26" s="75"/>
-      <c r="C26" s="76"/>
+      <c r="B26" s="88"/>
+      <c r="C26" s="89"/>
       <c r="D26" s="32">
         <v>6.3</v>
       </c>
@@ -3844,10 +3973,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4A7B72F-86CC-4D95-8679-E8786A5203A1}">
-  <dimension ref="B3:H22"/>
+  <dimension ref="B3:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3863,15 +3992,15 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:8">
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
     </row>
     <row r="4" spans="2:8">
       <c r="B4" s="56" t="s">
@@ -3892,15 +4021,15 @@
       <c r="G4" s="57" t="s">
         <v>138</v>
       </c>
-      <c r="H4" s="85" t="s">
+      <c r="H4" s="62" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="82">
+      <c r="B5" s="95">
         <v>1</v>
       </c>
-      <c r="C5" s="81" t="s">
+      <c r="C5" s="94" t="s">
         <v>39</v>
       </c>
       <c r="D5" s="31">
@@ -3920,8 +4049,8 @@
       </c>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6" s="82"/>
-      <c r="C6" s="81"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="94"/>
       <c r="D6" s="31">
         <v>1.2</v>
       </c>
@@ -3937,8 +4066,8 @@
       <c r="H6" s="20"/>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="82"/>
-      <c r="C7" s="81"/>
+      <c r="B7" s="95"/>
+      <c r="C7" s="94"/>
       <c r="D7" s="31">
         <v>1.3</v>
       </c>
@@ -3954,8 +4083,8 @@
       <c r="H7" s="20"/>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="82"/>
-      <c r="C8" s="81"/>
+      <c r="B8" s="95"/>
+      <c r="C8" s="94"/>
       <c r="D8" s="31">
         <v>1.4</v>
       </c>
@@ -3971,8 +4100,8 @@
       <c r="H8" s="20"/>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="82"/>
-      <c r="C9" s="81"/>
+      <c r="B9" s="95"/>
+      <c r="C9" s="94"/>
       <c r="D9" s="31">
         <v>1.5</v>
       </c>
@@ -3988,10 +4117,10 @@
       <c r="H9" s="20"/>
     </row>
     <row r="10" spans="2:8">
-      <c r="B10" s="82">
+      <c r="B10" s="95">
         <v>2</v>
       </c>
-      <c r="C10" s="81" t="s">
+      <c r="C10" s="94" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="31">
@@ -4006,13 +4135,13 @@
       <c r="G10" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="H10" s="84" t="s">
+      <c r="H10" s="61" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="11" spans="2:8">
-      <c r="B11" s="82"/>
-      <c r="C11" s="81"/>
+      <c r="B11" s="95"/>
+      <c r="C11" s="94"/>
       <c r="D11" s="31">
         <v>2.2000000000000002</v>
       </c>
@@ -4028,10 +4157,10 @@
       <c r="H11" s="20"/>
     </row>
     <row r="12" spans="2:8">
-      <c r="B12" s="82">
+      <c r="B12" s="95">
         <v>3</v>
       </c>
-      <c r="C12" s="81" t="s">
+      <c r="C12" s="94" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="31">
@@ -4049,8 +4178,8 @@
       <c r="H12" s="20"/>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="82"/>
-      <c r="C13" s="81"/>
+      <c r="B13" s="95"/>
+      <c r="C13" s="94"/>
       <c r="D13" s="31">
         <v>3.2</v>
       </c>
@@ -4068,8 +4197,8 @@
       </c>
     </row>
     <row r="14" spans="2:8">
-      <c r="B14" s="82"/>
-      <c r="C14" s="81"/>
+      <c r="B14" s="95"/>
+      <c r="C14" s="94"/>
       <c r="D14" s="31">
         <v>3.3</v>
       </c>
@@ -4085,10 +4214,10 @@
       <c r="H14" s="20"/>
     </row>
     <row r="15" spans="2:8">
-      <c r="B15" s="82">
+      <c r="B15" s="95">
         <v>4</v>
       </c>
-      <c r="C15" s="81" t="s">
+      <c r="C15" s="94" t="s">
         <v>53</v>
       </c>
       <c r="D15" s="31">
@@ -4106,8 +4235,8 @@
       <c r="H15" s="20"/>
     </row>
     <row r="16" spans="2:8">
-      <c r="B16" s="82"/>
-      <c r="C16" s="81"/>
+      <c r="B16" s="95"/>
+      <c r="C16" s="94"/>
       <c r="D16" s="31">
         <v>4.2</v>
       </c>
@@ -4123,8 +4252,8 @@
       <c r="H16" s="20"/>
     </row>
     <row r="17" spans="2:8">
-      <c r="B17" s="82"/>
-      <c r="C17" s="81"/>
+      <c r="B17" s="95"/>
+      <c r="C17" s="94"/>
       <c r="D17" s="31">
         <v>4.3</v>
       </c>
@@ -4140,10 +4269,10 @@
       <c r="H17" s="20"/>
     </row>
     <row r="18" spans="2:8">
-      <c r="B18" s="82">
+      <c r="B18" s="95">
         <v>5</v>
       </c>
-      <c r="C18" s="81" t="s">
+      <c r="C18" s="94" t="s">
         <v>58</v>
       </c>
       <c r="D18" s="31">
@@ -4161,8 +4290,8 @@
       <c r="H18" s="20"/>
     </row>
     <row r="19" spans="2:8">
-      <c r="B19" s="82"/>
-      <c r="C19" s="81"/>
+      <c r="B19" s="95"/>
+      <c r="C19" s="94"/>
       <c r="D19" s="31">
         <v>5.2</v>
       </c>
@@ -4178,10 +4307,10 @@
       <c r="H19" s="20"/>
     </row>
     <row r="20" spans="2:8">
-      <c r="B20" s="82">
+      <c r="B20" s="95">
         <v>6</v>
       </c>
-      <c r="C20" s="81" t="s">
+      <c r="C20" s="94" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="31">
@@ -4199,8 +4328,8 @@
       <c r="H20" s="20"/>
     </row>
     <row r="21" spans="2:8">
-      <c r="B21" s="82"/>
-      <c r="C21" s="81"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="94"/>
       <c r="D21" s="31">
         <v>6.2</v>
       </c>
@@ -4216,8 +4345,8 @@
       <c r="H21" s="20"/>
     </row>
     <row r="22" spans="2:8">
-      <c r="B22" s="82"/>
-      <c r="C22" s="81"/>
+      <c r="B22" s="95"/>
+      <c r="C22" s="94"/>
       <c r="D22" s="31">
         <v>6.3</v>
       </c>
@@ -4234,8 +4363,27 @@
         <v>171</v>
       </c>
     </row>
+    <row r="26" spans="2:8">
+      <c r="G26" s="63" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="G27" s="20" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="G28" s="20" t="s">
+        <v>174</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="C5:C9"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="B3:H3"/>
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="C20:C22"/>
     <mergeCell ref="B10:B11"/>
@@ -4245,10 +4393,516 @@
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="C18:C19"/>
-    <mergeCell ref="B5:B9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDE1FF8F-EB37-449D-98E3-F8D67A18F8C1}">
+  <dimension ref="C3:O29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="33.85546875" customWidth="1"/>
+    <col min="7" max="7" width="77.42578125" customWidth="1"/>
+    <col min="8" max="8" width="117.5703125" customWidth="1"/>
+    <col min="9" max="9" width="88.7109375" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" customWidth="1"/>
+    <col min="11" max="11" width="17" customWidth="1"/>
+    <col min="12" max="12" width="18" customWidth="1"/>
+    <col min="13" max="13" width="22" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:15">
+      <c r="C3" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="69"/>
+    </row>
+    <row r="4" spans="3:15">
+      <c r="C4" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" s="56" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4" s="57" t="s">
+        <v>83</v>
+      </c>
+      <c r="H4" s="57" t="s">
+        <v>138</v>
+      </c>
+      <c r="I4" s="62" t="s">
+        <v>139</v>
+      </c>
+      <c r="K4" s="97" t="s">
+        <v>175</v>
+      </c>
+      <c r="L4" s="97"/>
+      <c r="M4" s="97"/>
+      <c r="N4" s="97"/>
+      <c r="O4" s="97"/>
+    </row>
+    <row r="5" spans="3:15">
+      <c r="C5" s="95">
+        <v>1</v>
+      </c>
+      <c r="D5" s="94" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="31">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F5" s="58" t="s">
+        <v>88</v>
+      </c>
+      <c r="G5" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="3:15">
+      <c r="C6" s="95"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="31">
+        <v>1.2</v>
+      </c>
+      <c r="F6" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="G6" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="I6" s="20"/>
+      <c r="K6" s="72" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="3:15">
+      <c r="C7" s="95"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="31">
+        <v>1.3</v>
+      </c>
+      <c r="F7" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="G7" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="H7" s="59" t="s">
+        <v>146</v>
+      </c>
+      <c r="I7" s="20"/>
+    </row>
+    <row r="8" spans="3:15">
+      <c r="C8" s="95"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="31">
+        <v>1.4</v>
+      </c>
+      <c r="F8" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="G8" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="H8" s="59" t="s">
+        <v>148</v>
+      </c>
+      <c r="I8" s="20"/>
+      <c r="K8" s="70" t="s">
+        <v>177</v>
+      </c>
+      <c r="L8" s="62" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="9" spans="3:15">
+      <c r="C9" s="95"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="31">
+        <v>1.5</v>
+      </c>
+      <c r="F9" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="I9" s="20"/>
+      <c r="K9" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="L9" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="M9" s="71"/>
+    </row>
+    <row r="10" spans="3:15">
+      <c r="C10" s="95">
+        <v>2</v>
+      </c>
+      <c r="D10" s="94" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="31">
+        <v>2.1</v>
+      </c>
+      <c r="F10" s="58" t="s">
+        <v>98</v>
+      </c>
+      <c r="G10" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="I10" s="64" t="s">
+        <v>153</v>
+      </c>
+      <c r="K10" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="L10" s="20" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="11" spans="3:15">
+      <c r="C11" s="95"/>
+      <c r="D11" s="94"/>
+      <c r="E11" s="31">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F11" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="G11" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="H11" s="66" t="s">
+        <v>154</v>
+      </c>
+      <c r="I11" s="67"/>
+      <c r="K11" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="L11" s="98"/>
+    </row>
+    <row r="12" spans="3:15">
+      <c r="C12" s="95">
+        <v>3</v>
+      </c>
+      <c r="D12" s="94" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="31">
+        <v>3.1</v>
+      </c>
+      <c r="F12" s="58" t="s">
+        <v>98</v>
+      </c>
+      <c r="G12" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="I12" s="65"/>
+      <c r="K12" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="L12" s="20"/>
+    </row>
+    <row r="13" spans="3:15">
+      <c r="C13" s="95"/>
+      <c r="D13" s="94"/>
+      <c r="E13" s="31">
+        <v>3.2</v>
+      </c>
+      <c r="F13" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="G13" s="39" t="s">
+        <v>157</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="I13" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="K13" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="L13" s="20"/>
+    </row>
+    <row r="14" spans="3:15">
+      <c r="C14" s="95"/>
+      <c r="D14" s="94"/>
+      <c r="E14" s="31">
+        <v>3.3</v>
+      </c>
+      <c r="F14" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="G14" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="I14" s="20"/>
+    </row>
+    <row r="15" spans="3:15">
+      <c r="C15" s="95">
+        <v>4</v>
+      </c>
+      <c r="D15" s="94" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="31">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F15" s="58" t="s">
+        <v>98</v>
+      </c>
+      <c r="G15" s="45" t="s">
+        <v>161</v>
+      </c>
+      <c r="H15" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="I15" s="20"/>
+      <c r="K15" s="72" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="16" spans="3:15">
+      <c r="C16" s="95"/>
+      <c r="D16" s="94"/>
+      <c r="E16" s="31">
+        <v>4.2</v>
+      </c>
+      <c r="F16" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="G16" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="I16" s="20"/>
+    </row>
+    <row r="17" spans="3:14">
+      <c r="C17" s="95"/>
+      <c r="D17" s="94"/>
+      <c r="E17" s="31">
+        <v>4.3</v>
+      </c>
+      <c r="F17" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="G17" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="I17" s="20"/>
+      <c r="K17" s="62" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14">
+      <c r="C18" s="95">
+        <v>5</v>
+      </c>
+      <c r="D18" s="94" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="31">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F18" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="G18" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="H18" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="I18" s="20"/>
+      <c r="K18" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="L18" s="62" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14">
+      <c r="C19" s="95"/>
+      <c r="D19" s="94"/>
+      <c r="E19" s="31">
+        <v>5.2</v>
+      </c>
+      <c r="F19" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="G19" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="H19" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="I19" s="20"/>
+      <c r="L19" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="M19" s="62" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="20" spans="3:14">
+      <c r="C20" s="95">
+        <v>6</v>
+      </c>
+      <c r="D20" s="94" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="31">
+        <v>6.1</v>
+      </c>
+      <c r="F20" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="G20" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="H20" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="I20" s="20"/>
+      <c r="M20" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="N20" s="62" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14">
+      <c r="C21" s="95"/>
+      <c r="D21" s="94"/>
+      <c r="E21" s="31">
+        <v>6.2</v>
+      </c>
+      <c r="F21" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="G21" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="H21" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="I21" s="20"/>
+      <c r="N21" s="20" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14">
+      <c r="C22" s="95"/>
+      <c r="D22" s="94"/>
+      <c r="E22" s="31">
+        <v>6.3</v>
+      </c>
+      <c r="F22" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="G22" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="H22" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="I22" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="N22" s="59" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14">
+      <c r="N23" s="59" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14">
+      <c r="H26" s="63" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14">
+      <c r="H27" s="20" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14">
+      <c r="H28" s="20" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14">
+      <c r="H29" t="s">
+        <v>195</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="D20:D22"/>
     <mergeCell ref="C5:C9"/>
+    <mergeCell ref="D5:D9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
     <mergeCell ref="C12:C14"/>
-    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="K4:O4"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Requirement/A5-User Stories.xlsx
+++ b/Requirement/A5-User Stories.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25203"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25131"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="1873" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{600403D0-283F-4874-BF5C-1812B1875A55}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1CD66CD9-ED2D-45A5-B8CB-DC68011D7918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="04-04-2022" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="200">
   <si>
     <t>USER STORIES</t>
   </si>
@@ -619,7 +619,19 @@
     <t>Public is an employee in the organisation</t>
   </si>
   <si>
+    <t>Login Constraints - Credentials must be stored in database (Story - 1.1,2.1,3.1,4.1)</t>
+  </si>
+  <si>
+    <t>Requester story 2.2 - requester need a list of employeees under him</t>
+  </si>
+  <si>
     <t>By default dashboard shows the correct information of awards and awardee</t>
+  </si>
+  <si>
+    <t>Approver story 3.2 - Approver should be an higher authority</t>
+  </si>
+  <si>
+    <t>public story 6.3 - public must have login credentials</t>
   </si>
 </sst>
 </file>
@@ -1143,7 +1155,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1329,6 +1341,16 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1347,15 +1369,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1368,33 +1381,33 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1404,7 +1417,11 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3122,19 +3139,19 @@
     </row>
     <row r="5" spans="3:17">
       <c r="C5" s="4"/>
-      <c r="O5" s="73" t="s">
+      <c r="O5" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="75"/>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="79"/>
     </row>
     <row r="8" spans="3:17">
-      <c r="C8" s="84" t="s">
+      <c r="C8" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="84"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="85"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="86"/>
     </row>
     <row r="9" spans="3:17">
       <c r="C9" s="14" t="s">
@@ -3151,10 +3168,10 @@
       </c>
     </row>
     <row r="10" spans="3:17">
-      <c r="C10" s="79">
+      <c r="C10" s="74">
         <v>1</v>
       </c>
-      <c r="D10" s="76" t="s">
+      <c r="D10" s="80" t="s">
         <v>39</v>
       </c>
       <c r="E10" s="15" t="s">
@@ -3165,26 +3182,26 @@
       </c>
     </row>
     <row r="11" spans="3:17">
-      <c r="C11" s="80"/>
-      <c r="D11" s="77"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="81"/>
       <c r="E11" s="16" t="s">
         <v>42</v>
       </c>
       <c r="F11" s="25"/>
     </row>
     <row r="12" spans="3:17">
-      <c r="C12" s="81"/>
-      <c r="D12" s="78"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="82"/>
       <c r="E12" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F12" s="22"/>
     </row>
     <row r="13" spans="3:17">
-      <c r="C13" s="79">
+      <c r="C13" s="74">
         <v>2</v>
       </c>
-      <c r="D13" s="76" t="s">
+      <c r="D13" s="80" t="s">
         <v>5</v>
       </c>
       <c r="E13" s="11" t="s">
@@ -3195,172 +3212,172 @@
       </c>
     </row>
     <row r="14" spans="3:17">
-      <c r="C14" s="79"/>
-      <c r="D14" s="76"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="80"/>
       <c r="E14" s="11" t="s">
         <v>46</v>
       </c>
       <c r="F14" s="25"/>
     </row>
     <row r="15" spans="3:17">
-      <c r="C15" s="79"/>
-      <c r="D15" s="76"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="80"/>
       <c r="E15" s="11" t="s">
         <v>47</v>
       </c>
       <c r="F15" s="25"/>
     </row>
     <row r="16" spans="3:17">
-      <c r="C16" s="79"/>
-      <c r="D16" s="76"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="80"/>
       <c r="E16" s="13" t="s">
         <v>6</v>
       </c>
       <c r="F16" s="22"/>
     </row>
     <row r="17" spans="3:6">
-      <c r="C17" s="79">
+      <c r="C17" s="74">
         <v>3</v>
       </c>
-      <c r="D17" s="76" t="s">
+      <c r="D17" s="80" t="s">
         <v>8</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="F17" s="79" t="s">
+      <c r="F17" s="74" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="3:6">
-      <c r="C18" s="79"/>
-      <c r="D18" s="76"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="80"/>
       <c r="E18" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="F18" s="80"/>
+      <c r="F18" s="75"/>
     </row>
     <row r="19" spans="3:6">
-      <c r="C19" s="79"/>
-      <c r="D19" s="76"/>
+      <c r="C19" s="74"/>
+      <c r="D19" s="80"/>
       <c r="E19" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="80"/>
+      <c r="F19" s="75"/>
     </row>
     <row r="20" spans="3:6">
-      <c r="C20" s="79"/>
-      <c r="D20" s="76"/>
+      <c r="C20" s="74"/>
+      <c r="D20" s="80"/>
       <c r="E20" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="F20" s="80"/>
+      <c r="F20" s="75"/>
     </row>
     <row r="21" spans="3:6">
-      <c r="C21" s="79"/>
-      <c r="D21" s="76"/>
+      <c r="C21" s="74"/>
+      <c r="D21" s="80"/>
       <c r="E21" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="F21" s="81"/>
+      <c r="F21" s="76"/>
     </row>
     <row r="22" spans="3:6">
-      <c r="C22" s="79">
+      <c r="C22" s="74">
         <v>4</v>
       </c>
-      <c r="D22" s="76" t="s">
+      <c r="D22" s="80" t="s">
         <v>53</v>
       </c>
       <c r="E22" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="F22" s="79" t="s">
+      <c r="F22" s="74" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="23" spans="3:6">
-      <c r="C23" s="79"/>
-      <c r="D23" s="76"/>
+      <c r="C23" s="74"/>
+      <c r="D23" s="80"/>
       <c r="E23" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="F23" s="80"/>
+      <c r="F23" s="75"/>
     </row>
     <row r="24" spans="3:6">
-      <c r="C24" s="79"/>
-      <c r="D24" s="76"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="80"/>
       <c r="E24" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="F24" s="80"/>
+      <c r="F24" s="75"/>
     </row>
     <row r="25" spans="3:6">
-      <c r="C25" s="79"/>
-      <c r="D25" s="76"/>
+      <c r="C25" s="74"/>
+      <c r="D25" s="80"/>
       <c r="E25" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F25" s="81"/>
+      <c r="F25" s="76"/>
     </row>
     <row r="26" spans="3:6">
-      <c r="C26" s="83">
+      <c r="C26" s="84">
         <v>5</v>
       </c>
-      <c r="D26" s="82" t="s">
+      <c r="D26" s="83" t="s">
         <v>58</v>
       </c>
       <c r="E26" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="F26" s="79" t="s">
+      <c r="F26" s="74" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="27" spans="3:6">
-      <c r="C27" s="83"/>
-      <c r="D27" s="82"/>
+      <c r="C27" s="84"/>
+      <c r="D27" s="83"/>
       <c r="E27" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="F27" s="80"/>
+      <c r="F27" s="75"/>
     </row>
     <row r="28" spans="3:6">
-      <c r="C28" s="83"/>
-      <c r="D28" s="82"/>
+      <c r="C28" s="84"/>
+      <c r="D28" s="83"/>
       <c r="E28" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="F28" s="81"/>
+      <c r="F28" s="76"/>
     </row>
     <row r="29" spans="3:6">
-      <c r="C29" s="83">
+      <c r="C29" s="84">
         <v>6</v>
       </c>
-      <c r="D29" s="82" t="s">
+      <c r="D29" s="83" t="s">
         <v>15</v>
       </c>
       <c r="E29" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="F29" s="79" t="s">
+      <c r="F29" s="74" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="30" spans="3:6">
-      <c r="C30" s="83"/>
-      <c r="D30" s="82"/>
+      <c r="C30" s="84"/>
+      <c r="D30" s="83"/>
       <c r="E30" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="F30" s="80"/>
+      <c r="F30" s="75"/>
     </row>
     <row r="31" spans="3:6">
-      <c r="C31" s="83"/>
-      <c r="D31" s="82"/>
+      <c r="C31" s="84"/>
+      <c r="D31" s="83"/>
       <c r="E31" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="F31" s="81"/>
+      <c r="F31" s="76"/>
     </row>
     <row r="36" spans="2:6">
       <c r="F36" s="19" t="s">
@@ -3456,11 +3473,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C17:C21"/>
-    <mergeCell ref="F17:F21"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="C10:C12"/>
     <mergeCell ref="D29:D31"/>
     <mergeCell ref="C29:C31"/>
     <mergeCell ref="F29:F31"/>
@@ -3474,6 +3486,11 @@
     <mergeCell ref="C13:C16"/>
     <mergeCell ref="D13:D16"/>
     <mergeCell ref="D17:D21"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="F17:F21"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="C10:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3506,10 +3523,10 @@
       <c r="D3" s="92"/>
       <c r="E3" s="92"/>
       <c r="F3" s="92"/>
-      <c r="Q3" s="86" t="s">
+      <c r="Q3" s="89" t="s">
         <v>80</v>
       </c>
-      <c r="R3" s="86"/>
+      <c r="R3" s="89"/>
     </row>
     <row r="4" spans="2:86" ht="30" customHeight="1">
       <c r="B4" s="46" t="s">
@@ -3527,32 +3544,32 @@
       <c r="F4" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="AD4" s="87" t="s">
+      <c r="AD4" s="95" t="s">
         <v>84</v>
       </c>
-      <c r="AE4" s="87"/>
-      <c r="AF4" s="87"/>
-      <c r="AU4" s="86" t="s">
+      <c r="AE4" s="95"/>
+      <c r="AF4" s="95"/>
+      <c r="AU4" s="89" t="s">
         <v>85</v>
       </c>
-      <c r="AV4" s="86"/>
-      <c r="AW4" s="86"/>
-      <c r="BO4" s="86" t="s">
+      <c r="AV4" s="89"/>
+      <c r="AW4" s="89"/>
+      <c r="BO4" s="89" t="s">
         <v>86</v>
       </c>
-      <c r="BP4" s="86"/>
-      <c r="BQ4" s="86"/>
-      <c r="CF4" s="86" t="s">
+      <c r="BP4" s="89"/>
+      <c r="BQ4" s="89"/>
+      <c r="CF4" s="89" t="s">
         <v>87</v>
       </c>
-      <c r="CG4" s="86"/>
-      <c r="CH4" s="86"/>
+      <c r="CG4" s="89"/>
+      <c r="CH4" s="89"/>
     </row>
     <row r="5" spans="2:86" ht="30" customHeight="1">
       <c r="B5" s="93">
         <v>1</v>
       </c>
-      <c r="C5" s="89" t="s">
+      <c r="C5" s="88" t="s">
         <v>39</v>
       </c>
       <c r="D5" s="33">
@@ -3567,7 +3584,7 @@
     </row>
     <row r="6" spans="2:86" ht="30" customHeight="1">
       <c r="B6" s="93"/>
-      <c r="C6" s="89"/>
+      <c r="C6" s="88"/>
       <c r="D6" s="31">
         <v>1.2</v>
       </c>
@@ -3580,7 +3597,7 @@
     </row>
     <row r="7" spans="2:86" ht="30" customHeight="1">
       <c r="B7" s="93"/>
-      <c r="C7" s="89"/>
+      <c r="C7" s="88"/>
       <c r="D7" s="31">
         <v>1.3</v>
       </c>
@@ -3606,7 +3623,7 @@
     </row>
     <row r="9" spans="2:86" ht="30" customHeight="1">
       <c r="B9" s="93"/>
-      <c r="C9" s="89"/>
+      <c r="C9" s="88"/>
       <c r="D9" s="32">
         <v>1.5</v>
       </c>
@@ -3618,10 +3635,10 @@
       </c>
     </row>
     <row r="10" spans="2:86" ht="30" customHeight="1">
-      <c r="B10" s="88">
+      <c r="B10" s="87">
         <v>2</v>
       </c>
-      <c r="C10" s="89" t="s">
+      <c r="C10" s="88" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="33">
@@ -3635,8 +3652,8 @@
       </c>
     </row>
     <row r="11" spans="2:86" ht="30" customHeight="1">
-      <c r="B11" s="88"/>
-      <c r="C11" s="89"/>
+      <c r="B11" s="87"/>
+      <c r="C11" s="88"/>
       <c r="D11" s="31">
         <v>2.2000000000000002</v>
       </c>
@@ -3646,15 +3663,15 @@
       <c r="F11" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="CF11" s="86" t="s">
+      <c r="CF11" s="89" t="s">
         <v>102</v>
       </c>
-      <c r="CG11" s="86"/>
-      <c r="CH11" s="86"/>
+      <c r="CG11" s="89"/>
+      <c r="CH11" s="89"/>
     </row>
     <row r="12" spans="2:86" ht="30" customHeight="1">
-      <c r="B12" s="88"/>
-      <c r="C12" s="89"/>
+      <c r="B12" s="87"/>
+      <c r="C12" s="88"/>
       <c r="D12" s="31">
         <v>2.2999999999999998</v>
       </c>
@@ -3666,8 +3683,8 @@
       </c>
     </row>
     <row r="13" spans="2:86" ht="30" customHeight="1">
-      <c r="B13" s="88"/>
-      <c r="C13" s="89"/>
+      <c r="B13" s="87"/>
+      <c r="C13" s="88"/>
       <c r="D13" s="31">
         <v>2.4</v>
       </c>
@@ -3679,8 +3696,8 @@
       </c>
     </row>
     <row r="14" spans="2:86" ht="30" customHeight="1">
-      <c r="B14" s="88"/>
-      <c r="C14" s="89"/>
+      <c r="B14" s="87"/>
+      <c r="C14" s="88"/>
       <c r="D14" s="32">
         <v>2.5</v>
       </c>
@@ -3692,10 +3709,10 @@
       </c>
     </row>
     <row r="15" spans="2:86" ht="30" customHeight="1">
-      <c r="B15" s="88">
+      <c r="B15" s="87">
         <v>3</v>
       </c>
-      <c r="C15" s="89" t="s">
+      <c r="C15" s="88" t="s">
         <v>8</v>
       </c>
       <c r="D15" s="33">
@@ -3709,8 +3726,8 @@
       </c>
     </row>
     <row r="16" spans="2:86" ht="30" customHeight="1">
-      <c r="B16" s="88"/>
-      <c r="C16" s="89"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="88"/>
       <c r="D16" s="31">
         <v>3.2</v>
       </c>
@@ -3722,8 +3739,8 @@
       </c>
     </row>
     <row r="17" spans="2:6" ht="30" customHeight="1">
-      <c r="B17" s="88"/>
-      <c r="C17" s="89"/>
+      <c r="B17" s="87"/>
+      <c r="C17" s="88"/>
       <c r="D17" s="32">
         <v>3.3</v>
       </c>
@@ -3735,10 +3752,10 @@
       </c>
     </row>
     <row r="18" spans="2:6" ht="30" customHeight="1">
-      <c r="B18" s="88">
+      <c r="B18" s="87">
         <v>4</v>
       </c>
-      <c r="C18" s="89" t="s">
+      <c r="C18" s="88" t="s">
         <v>53</v>
       </c>
       <c r="D18" s="33">
@@ -3752,8 +3769,8 @@
       </c>
     </row>
     <row r="19" spans="2:6" ht="30" customHeight="1">
-      <c r="B19" s="88"/>
-      <c r="C19" s="89"/>
+      <c r="B19" s="87"/>
+      <c r="C19" s="88"/>
       <c r="D19" s="31">
         <v>4.2</v>
       </c>
@@ -3765,8 +3782,8 @@
       </c>
     </row>
     <row r="20" spans="2:6" ht="30" customHeight="1">
-      <c r="B20" s="88"/>
-      <c r="C20" s="89"/>
+      <c r="B20" s="87"/>
+      <c r="C20" s="88"/>
       <c r="D20" s="31">
         <v>4.3</v>
       </c>
@@ -3778,8 +3795,8 @@
       </c>
     </row>
     <row r="21" spans="2:6" ht="30" customHeight="1">
-      <c r="B21" s="88"/>
-      <c r="C21" s="89"/>
+      <c r="B21" s="87"/>
+      <c r="C21" s="88"/>
       <c r="D21" s="32">
         <v>4.4000000000000004</v>
       </c>
@@ -3821,10 +3838,10 @@
       </c>
     </row>
     <row r="24" spans="2:6" ht="30" customHeight="1">
-      <c r="B24" s="88">
+      <c r="B24" s="87">
         <v>6</v>
       </c>
-      <c r="C24" s="89" t="s">
+      <c r="C24" s="88" t="s">
         <v>15</v>
       </c>
       <c r="D24" s="33">
@@ -3838,8 +3855,8 @@
       </c>
     </row>
     <row r="25" spans="2:6" ht="30" customHeight="1">
-      <c r="B25" s="88"/>
-      <c r="C25" s="89"/>
+      <c r="B25" s="87"/>
+      <c r="C25" s="88"/>
       <c r="D25" s="31">
         <v>6.2</v>
       </c>
@@ -3851,8 +3868,8 @@
       </c>
     </row>
     <row r="26" spans="2:6" ht="30" customHeight="1">
-      <c r="B26" s="88"/>
-      <c r="C26" s="89"/>
+      <c r="B26" s="87"/>
+      <c r="C26" s="88"/>
       <c r="D26" s="32">
         <v>6.3</v>
       </c>
@@ -3946,6 +3963,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="BO4:BQ4"/>
+    <mergeCell ref="CF4:CH4"/>
+    <mergeCell ref="CF11:CH11"/>
+    <mergeCell ref="AD4:AF4"/>
+    <mergeCell ref="AU4:AW4"/>
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="C24:C26"/>
     <mergeCell ref="Q3:R3"/>
@@ -3960,11 +3982,6 @@
     <mergeCell ref="C5:C9"/>
     <mergeCell ref="B10:B14"/>
     <mergeCell ref="C10:C14"/>
-    <mergeCell ref="BO4:BQ4"/>
-    <mergeCell ref="CF4:CH4"/>
-    <mergeCell ref="CF11:CH11"/>
-    <mergeCell ref="AD4:AF4"/>
-    <mergeCell ref="AU4:AW4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3992,15 +4009,15 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:8">
-      <c r="B3" s="96" t="s">
+      <c r="B3" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
     </row>
     <row r="4" spans="2:8">
       <c r="B4" s="56" t="s">
@@ -4026,7 +4043,7 @@
       </c>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="95">
+      <c r="B5" s="96">
         <v>1</v>
       </c>
       <c r="C5" s="94" t="s">
@@ -4049,7 +4066,7 @@
       </c>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6" s="95"/>
+      <c r="B6" s="96"/>
       <c r="C6" s="94"/>
       <c r="D6" s="31">
         <v>1.2</v>
@@ -4066,7 +4083,7 @@
       <c r="H6" s="20"/>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="95"/>
+      <c r="B7" s="96"/>
       <c r="C7" s="94"/>
       <c r="D7" s="31">
         <v>1.3</v>
@@ -4083,7 +4100,7 @@
       <c r="H7" s="20"/>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="95"/>
+      <c r="B8" s="96"/>
       <c r="C8" s="94"/>
       <c r="D8" s="31">
         <v>1.4</v>
@@ -4100,7 +4117,7 @@
       <c r="H8" s="20"/>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="95"/>
+      <c r="B9" s="96"/>
       <c r="C9" s="94"/>
       <c r="D9" s="31">
         <v>1.5</v>
@@ -4117,7 +4134,7 @@
       <c r="H9" s="20"/>
     </row>
     <row r="10" spans="2:8">
-      <c r="B10" s="95">
+      <c r="B10" s="96">
         <v>2</v>
       </c>
       <c r="C10" s="94" t="s">
@@ -4140,7 +4157,7 @@
       </c>
     </row>
     <row r="11" spans="2:8">
-      <c r="B11" s="95"/>
+      <c r="B11" s="96"/>
       <c r="C11" s="94"/>
       <c r="D11" s="31">
         <v>2.2000000000000002</v>
@@ -4157,7 +4174,7 @@
       <c r="H11" s="20"/>
     </row>
     <row r="12" spans="2:8">
-      <c r="B12" s="95">
+      <c r="B12" s="96">
         <v>3</v>
       </c>
       <c r="C12" s="94" t="s">
@@ -4178,7 +4195,7 @@
       <c r="H12" s="20"/>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="95"/>
+      <c r="B13" s="96"/>
       <c r="C13" s="94"/>
       <c r="D13" s="31">
         <v>3.2</v>
@@ -4197,7 +4214,7 @@
       </c>
     </row>
     <row r="14" spans="2:8">
-      <c r="B14" s="95"/>
+      <c r="B14" s="96"/>
       <c r="C14" s="94"/>
       <c r="D14" s="31">
         <v>3.3</v>
@@ -4214,7 +4231,7 @@
       <c r="H14" s="20"/>
     </row>
     <row r="15" spans="2:8">
-      <c r="B15" s="95">
+      <c r="B15" s="96">
         <v>4</v>
       </c>
       <c r="C15" s="94" t="s">
@@ -4235,7 +4252,7 @@
       <c r="H15" s="20"/>
     </row>
     <row r="16" spans="2:8">
-      <c r="B16" s="95"/>
+      <c r="B16" s="96"/>
       <c r="C16" s="94"/>
       <c r="D16" s="31">
         <v>4.2</v>
@@ -4252,7 +4269,7 @@
       <c r="H16" s="20"/>
     </row>
     <row r="17" spans="2:8">
-      <c r="B17" s="95"/>
+      <c r="B17" s="96"/>
       <c r="C17" s="94"/>
       <c r="D17" s="31">
         <v>4.3</v>
@@ -4269,7 +4286,7 @@
       <c r="H17" s="20"/>
     </row>
     <row r="18" spans="2:8">
-      <c r="B18" s="95">
+      <c r="B18" s="96">
         <v>5</v>
       </c>
       <c r="C18" s="94" t="s">
@@ -4290,7 +4307,7 @@
       <c r="H18" s="20"/>
     </row>
     <row r="19" spans="2:8">
-      <c r="B19" s="95"/>
+      <c r="B19" s="96"/>
       <c r="C19" s="94"/>
       <c r="D19" s="31">
         <v>5.2</v>
@@ -4307,7 +4324,7 @@
       <c r="H19" s="20"/>
     </row>
     <row r="20" spans="2:8">
-      <c r="B20" s="95">
+      <c r="B20" s="96">
         <v>6</v>
       </c>
       <c r="C20" s="94" t="s">
@@ -4328,7 +4345,7 @@
       <c r="H20" s="20"/>
     </row>
     <row r="21" spans="2:8">
-      <c r="B21" s="95"/>
+      <c r="B21" s="96"/>
       <c r="C21" s="94"/>
       <c r="D21" s="31">
         <v>6.2</v>
@@ -4345,7 +4362,7 @@
       <c r="H21" s="20"/>
     </row>
     <row r="22" spans="2:8">
-      <c r="B22" s="95"/>
+      <c r="B22" s="96"/>
       <c r="C22" s="94"/>
       <c r="D22" s="31">
         <v>6.3</v>
@@ -4400,10 +4417,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDE1FF8F-EB37-449D-98E3-F8D67A18F8C1}">
-  <dimension ref="C3:O29"/>
+  <dimension ref="C3:O30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+      <selection activeCell="I27" sqref="I27:I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4450,19 +4467,17 @@
       <c r="H4" s="57" t="s">
         <v>138</v>
       </c>
-      <c r="I4" s="62" t="s">
-        <v>139</v>
-      </c>
-      <c r="K4" s="97" t="s">
+      <c r="I4" s="62"/>
+      <c r="K4" s="98" t="s">
         <v>175</v>
       </c>
-      <c r="L4" s="97"/>
-      <c r="M4" s="97"/>
-      <c r="N4" s="97"/>
-      <c r="O4" s="97"/>
+      <c r="L4" s="98"/>
+      <c r="M4" s="98"/>
+      <c r="N4" s="98"/>
+      <c r="O4" s="98"/>
     </row>
     <row r="5" spans="3:15">
-      <c r="C5" s="95">
+      <c r="C5" s="96">
         <v>1</v>
       </c>
       <c r="D5" s="94" t="s">
@@ -4480,12 +4495,10 @@
       <c r="H5" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="I5" s="20" t="s">
-        <v>142</v>
-      </c>
+      <c r="I5" s="20"/>
     </row>
     <row r="6" spans="3:15">
-      <c r="C6" s="95"/>
+      <c r="C6" s="96"/>
       <c r="D6" s="94"/>
       <c r="E6" s="31">
         <v>1.2</v>
@@ -4505,7 +4518,7 @@
       </c>
     </row>
     <row r="7" spans="3:15">
-      <c r="C7" s="95"/>
+      <c r="C7" s="96"/>
       <c r="D7" s="94"/>
       <c r="E7" s="31">
         <v>1.3</v>
@@ -4522,7 +4535,7 @@
       <c r="I7" s="20"/>
     </row>
     <row r="8" spans="3:15">
-      <c r="C8" s="95"/>
+      <c r="C8" s="96"/>
       <c r="D8" s="94"/>
       <c r="E8" s="31">
         <v>1.4</v>
@@ -4545,7 +4558,7 @@
       </c>
     </row>
     <row r="9" spans="3:15">
-      <c r="C9" s="95"/>
+      <c r="C9" s="96"/>
       <c r="D9" s="94"/>
       <c r="E9" s="31">
         <v>1.5</v>
@@ -4569,7 +4582,7 @@
       <c r="M9" s="71"/>
     </row>
     <row r="10" spans="3:15">
-      <c r="C10" s="95">
+      <c r="C10" s="96">
         <v>2</v>
       </c>
       <c r="D10" s="94" t="s">
@@ -4587,9 +4600,7 @@
       <c r="H10" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="I10" s="64" t="s">
-        <v>153</v>
-      </c>
+      <c r="I10" s="64"/>
       <c r="K10" s="20" t="s">
         <v>181</v>
       </c>
@@ -4598,7 +4609,7 @@
       </c>
     </row>
     <row r="11" spans="3:15">
-      <c r="C11" s="95"/>
+      <c r="C11" s="96"/>
       <c r="D11" s="94"/>
       <c r="E11" s="31">
         <v>2.2000000000000002</v>
@@ -4616,10 +4627,10 @@
       <c r="K11" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="L11" s="98"/>
+      <c r="L11" s="73"/>
     </row>
     <row r="12" spans="3:15">
-      <c r="C12" s="95">
+      <c r="C12" s="96">
         <v>3</v>
       </c>
       <c r="D12" s="94" t="s">
@@ -4644,7 +4655,7 @@
       <c r="L12" s="20"/>
     </row>
     <row r="13" spans="3:15">
-      <c r="C13" s="95"/>
+      <c r="C13" s="96"/>
       <c r="D13" s="94"/>
       <c r="E13" s="31">
         <v>3.2</v>
@@ -4658,16 +4669,14 @@
       <c r="H13" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="I13" s="20" t="s">
-        <v>159</v>
-      </c>
+      <c r="I13" s="20"/>
       <c r="K13" s="20" t="s">
         <v>185</v>
       </c>
       <c r="L13" s="20"/>
     </row>
     <row r="14" spans="3:15">
-      <c r="C14" s="95"/>
+      <c r="C14" s="96"/>
       <c r="D14" s="94"/>
       <c r="E14" s="31">
         <v>3.3</v>
@@ -4684,7 +4693,7 @@
       <c r="I14" s="20"/>
     </row>
     <row r="15" spans="3:15">
-      <c r="C15" s="95">
+      <c r="C15" s="96">
         <v>4</v>
       </c>
       <c r="D15" s="94" t="s">
@@ -4708,7 +4717,7 @@
       </c>
     </row>
     <row r="16" spans="3:15">
-      <c r="C16" s="95"/>
+      <c r="C16" s="96"/>
       <c r="D16" s="94"/>
       <c r="E16" s="31">
         <v>4.2</v>
@@ -4725,7 +4734,7 @@
       <c r="I16" s="20"/>
     </row>
     <row r="17" spans="3:14">
-      <c r="C17" s="95"/>
+      <c r="C17" s="96"/>
       <c r="D17" s="94"/>
       <c r="E17" s="31">
         <v>4.3</v>
@@ -4745,7 +4754,7 @@
       </c>
     </row>
     <row r="18" spans="3:14">
-      <c r="C18" s="95">
+      <c r="C18" s="96">
         <v>5</v>
       </c>
       <c r="D18" s="94" t="s">
@@ -4772,7 +4781,7 @@
       </c>
     </row>
     <row r="19" spans="3:14">
-      <c r="C19" s="95"/>
+      <c r="C19" s="96"/>
       <c r="D19" s="94"/>
       <c r="E19" s="31">
         <v>5.2</v>
@@ -4795,7 +4804,7 @@
       </c>
     </row>
     <row r="20" spans="3:14">
-      <c r="C20" s="95">
+      <c r="C20" s="96">
         <v>6</v>
       </c>
       <c r="D20" s="94" t="s">
@@ -4822,7 +4831,7 @@
       </c>
     </row>
     <row r="21" spans="3:14">
-      <c r="C21" s="95"/>
+      <c r="C21" s="96"/>
       <c r="D21" s="94"/>
       <c r="E21" s="31">
         <v>6.2</v>
@@ -4842,7 +4851,7 @@
       </c>
     </row>
     <row r="22" spans="3:14">
-      <c r="C22" s="95"/>
+      <c r="C22" s="96"/>
       <c r="D22" s="94"/>
       <c r="E22" s="31">
         <v>6.3</v>
@@ -4856,9 +4865,7 @@
       <c r="H22" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="I22" s="20" t="s">
-        <v>171</v>
-      </c>
+      <c r="I22" s="20"/>
       <c r="N22" s="59" t="s">
         <v>192</v>
       </c>
@@ -4869,27 +4876,49 @@
       </c>
     </row>
     <row r="26" spans="3:14">
-      <c r="H26" s="63" t="s">
+      <c r="H26" s="99" t="s">
         <v>172</v>
       </c>
+      <c r="I26" s="101" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="27" spans="3:14">
-      <c r="H27" s="20" t="s">
+      <c r="H27" s="66" t="s">
         <v>194</v>
       </c>
+      <c r="I27" s="55" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="28" spans="3:14">
-      <c r="H28" s="20" t="s">
+      <c r="H28" s="66" t="s">
         <v>174</v>
+      </c>
+      <c r="I28" s="100" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="29" spans="3:14">
       <c r="H29" t="s">
-        <v>195</v>
+        <v>197</v>
+      </c>
+      <c r="I29" s="100" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14">
+      <c r="I30" s="65" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="K4:O4"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
     <mergeCell ref="C20:C22"/>
     <mergeCell ref="D20:D22"/>
     <mergeCell ref="C5:C9"/>
@@ -4898,11 +4927,6 @@
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="C12:C14"/>
     <mergeCell ref="D12:D14"/>
-    <mergeCell ref="K4:O4"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Requirement/A5-User Stories.xlsx
+++ b/Requirement/A5-User Stories.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25203"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1CD66CD9-ED2D-45A5-B8CB-DC68011D7918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0FC3EAE4-41A3-4F35-BD88-97C0551A1677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="201">
   <si>
     <t>USER STORIES</t>
   </si>
@@ -632,6 +632,9 @@
   </si>
   <si>
     <t>public story 6.3 - public must have login credentials</t>
+  </si>
+  <si>
+    <t>1.Rework on whole wire frame(complete flow)</t>
   </si>
 </sst>
 </file>
@@ -720,7 +723,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -775,6 +778,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="30">
     <border>
@@ -1155,7 +1164,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1342,6 +1351,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1351,6 +1371,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1360,26 +1389,17 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1387,9 +1407,6 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1405,9 +1422,6 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1417,11 +1431,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3139,19 +3149,19 @@
     </row>
     <row r="5" spans="3:17">
       <c r="C5" s="4"/>
-      <c r="O5" s="77" t="s">
+      <c r="O5" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="79"/>
+      <c r="P5" s="86"/>
+      <c r="Q5" s="87"/>
     </row>
     <row r="8" spans="3:17">
-      <c r="C8" s="85" t="s">
+      <c r="C8" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="85"/>
-      <c r="E8" s="85"/>
-      <c r="F8" s="86"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="83"/>
     </row>
     <row r="9" spans="3:17">
       <c r="C9" s="14" t="s">
@@ -3168,10 +3178,10 @@
       </c>
     </row>
     <row r="10" spans="3:17">
-      <c r="C10" s="74">
+      <c r="C10" s="79">
         <v>1</v>
       </c>
-      <c r="D10" s="80" t="s">
+      <c r="D10" s="84" t="s">
         <v>39</v>
       </c>
       <c r="E10" s="15" t="s">
@@ -3182,26 +3192,26 @@
       </c>
     </row>
     <row r="11" spans="3:17">
-      <c r="C11" s="75"/>
-      <c r="D11" s="81"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="88"/>
       <c r="E11" s="16" t="s">
         <v>42</v>
       </c>
       <c r="F11" s="25"/>
     </row>
     <row r="12" spans="3:17">
-      <c r="C12" s="76"/>
-      <c r="D12" s="82"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="89"/>
       <c r="E12" s="26" t="s">
         <v>43</v>
       </c>
       <c r="F12" s="22"/>
     </row>
     <row r="13" spans="3:17">
-      <c r="C13" s="74">
+      <c r="C13" s="79">
         <v>2</v>
       </c>
-      <c r="D13" s="80" t="s">
+      <c r="D13" s="84" t="s">
         <v>5</v>
       </c>
       <c r="E13" s="11" t="s">
@@ -3212,172 +3222,172 @@
       </c>
     </row>
     <row r="14" spans="3:17">
-      <c r="C14" s="74"/>
-      <c r="D14" s="80"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="84"/>
       <c r="E14" s="11" t="s">
         <v>46</v>
       </c>
       <c r="F14" s="25"/>
     </row>
     <row r="15" spans="3:17">
-      <c r="C15" s="74"/>
-      <c r="D15" s="80"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="84"/>
       <c r="E15" s="11" t="s">
         <v>47</v>
       </c>
       <c r="F15" s="25"/>
     </row>
     <row r="16" spans="3:17">
-      <c r="C16" s="74"/>
-      <c r="D16" s="80"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="84"/>
       <c r="E16" s="13" t="s">
         <v>6</v>
       </c>
       <c r="F16" s="22"/>
     </row>
     <row r="17" spans="3:6">
-      <c r="C17" s="74">
+      <c r="C17" s="79">
         <v>3</v>
       </c>
-      <c r="D17" s="80" t="s">
+      <c r="D17" s="84" t="s">
         <v>8</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="F17" s="74" t="s">
+      <c r="F17" s="79" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="3:6">
-      <c r="C18" s="74"/>
-      <c r="D18" s="80"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="84"/>
       <c r="E18" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="F18" s="75"/>
+      <c r="F18" s="80"/>
     </row>
     <row r="19" spans="3:6">
-      <c r="C19" s="74"/>
-      <c r="D19" s="80"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="84"/>
       <c r="E19" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="75"/>
+      <c r="F19" s="80"/>
     </row>
     <row r="20" spans="3:6">
-      <c r="C20" s="74"/>
-      <c r="D20" s="80"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="84"/>
       <c r="E20" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="F20" s="75"/>
+      <c r="F20" s="80"/>
     </row>
     <row r="21" spans="3:6">
-      <c r="C21" s="74"/>
-      <c r="D21" s="80"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="84"/>
       <c r="E21" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="F21" s="76"/>
+      <c r="F21" s="81"/>
     </row>
     <row r="22" spans="3:6">
-      <c r="C22" s="74">
+      <c r="C22" s="79">
         <v>4</v>
       </c>
-      <c r="D22" s="80" t="s">
+      <c r="D22" s="84" t="s">
         <v>53</v>
       </c>
       <c r="E22" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="F22" s="74" t="s">
+      <c r="F22" s="79" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="23" spans="3:6">
-      <c r="C23" s="74"/>
-      <c r="D23" s="80"/>
+      <c r="C23" s="79"/>
+      <c r="D23" s="84"/>
       <c r="E23" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="F23" s="75"/>
+      <c r="F23" s="80"/>
     </row>
     <row r="24" spans="3:6">
-      <c r="C24" s="74"/>
-      <c r="D24" s="80"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="84"/>
       <c r="E24" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="F24" s="75"/>
+      <c r="F24" s="80"/>
     </row>
     <row r="25" spans="3:6">
-      <c r="C25" s="74"/>
-      <c r="D25" s="80"/>
+      <c r="C25" s="79"/>
+      <c r="D25" s="84"/>
       <c r="E25" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F25" s="76"/>
+      <c r="F25" s="81"/>
     </row>
     <row r="26" spans="3:6">
-      <c r="C26" s="84">
+      <c r="C26" s="78">
         <v>5</v>
       </c>
-      <c r="D26" s="83" t="s">
+      <c r="D26" s="77" t="s">
         <v>58</v>
       </c>
       <c r="E26" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="F26" s="74" t="s">
+      <c r="F26" s="79" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="27" spans="3:6">
-      <c r="C27" s="84"/>
-      <c r="D27" s="83"/>
+      <c r="C27" s="78"/>
+      <c r="D27" s="77"/>
       <c r="E27" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="F27" s="75"/>
+      <c r="F27" s="80"/>
     </row>
     <row r="28" spans="3:6">
-      <c r="C28" s="84"/>
-      <c r="D28" s="83"/>
+      <c r="C28" s="78"/>
+      <c r="D28" s="77"/>
       <c r="E28" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="F28" s="76"/>
+      <c r="F28" s="81"/>
     </row>
     <row r="29" spans="3:6">
-      <c r="C29" s="84">
+      <c r="C29" s="78">
         <v>6</v>
       </c>
-      <c r="D29" s="83" t="s">
+      <c r="D29" s="77" t="s">
         <v>15</v>
       </c>
       <c r="E29" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="F29" s="74" t="s">
+      <c r="F29" s="79" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="30" spans="3:6">
-      <c r="C30" s="84"/>
-      <c r="D30" s="83"/>
+      <c r="C30" s="78"/>
+      <c r="D30" s="77"/>
       <c r="E30" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="F30" s="75"/>
+      <c r="F30" s="80"/>
     </row>
     <row r="31" spans="3:6">
-      <c r="C31" s="84"/>
-      <c r="D31" s="83"/>
+      <c r="C31" s="78"/>
+      <c r="D31" s="77"/>
       <c r="E31" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="F31" s="76"/>
+      <c r="F31" s="81"/>
     </row>
     <row r="36" spans="2:6">
       <c r="F36" s="19" t="s">
@@ -3473,6 +3483,9 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="C10:C12"/>
     <mergeCell ref="D29:D31"/>
     <mergeCell ref="C29:C31"/>
     <mergeCell ref="F29:F31"/>
@@ -3488,9 +3501,6 @@
     <mergeCell ref="D17:D21"/>
     <mergeCell ref="C17:C21"/>
     <mergeCell ref="F17:F21"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="C10:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3501,8 +3511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1F59750-DACF-4F6C-8621-BEF568401F46}">
   <dimension ref="B3:CH53"/>
   <sheetViews>
-    <sheetView topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="B34" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3516,17 +3526,17 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:86" ht="30" customHeight="1">
-      <c r="B3" s="92" t="s">
+      <c r="B3" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="Q3" s="89" t="s">
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="Q3" s="90" t="s">
         <v>80</v>
       </c>
-      <c r="R3" s="89"/>
+      <c r="R3" s="90"/>
     </row>
     <row r="4" spans="2:86" ht="30" customHeight="1">
       <c r="B4" s="46" t="s">
@@ -3544,32 +3554,32 @@
       <c r="F4" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="AD4" s="95" t="s">
+      <c r="AD4" s="91" t="s">
         <v>84</v>
       </c>
-      <c r="AE4" s="95"/>
-      <c r="AF4" s="95"/>
-      <c r="AU4" s="89" t="s">
+      <c r="AE4" s="91"/>
+      <c r="AF4" s="91"/>
+      <c r="AU4" s="90" t="s">
         <v>85</v>
       </c>
-      <c r="AV4" s="89"/>
-      <c r="AW4" s="89"/>
-      <c r="BO4" s="89" t="s">
+      <c r="AV4" s="90"/>
+      <c r="AW4" s="90"/>
+      <c r="BO4" s="90" t="s">
         <v>86</v>
       </c>
-      <c r="BP4" s="89"/>
-      <c r="BQ4" s="89"/>
-      <c r="CF4" s="89" t="s">
+      <c r="BP4" s="90"/>
+      <c r="BQ4" s="90"/>
+      <c r="CF4" s="90" t="s">
         <v>87</v>
       </c>
-      <c r="CG4" s="89"/>
-      <c r="CH4" s="89"/>
+      <c r="CG4" s="90"/>
+      <c r="CH4" s="90"/>
     </row>
     <row r="5" spans="2:86" ht="30" customHeight="1">
-      <c r="B5" s="93">
+      <c r="B5" s="97">
         <v>1</v>
       </c>
-      <c r="C5" s="88" t="s">
+      <c r="C5" s="93" t="s">
         <v>39</v>
       </c>
       <c r="D5" s="33">
@@ -3583,8 +3593,8 @@
       </c>
     </row>
     <row r="6" spans="2:86" ht="30" customHeight="1">
-      <c r="B6" s="93"/>
-      <c r="C6" s="88"/>
+      <c r="B6" s="97"/>
+      <c r="C6" s="93"/>
       <c r="D6" s="31">
         <v>1.2</v>
       </c>
@@ -3596,8 +3606,8 @@
       </c>
     </row>
     <row r="7" spans="2:86" ht="30" customHeight="1">
-      <c r="B7" s="93"/>
-      <c r="C7" s="88"/>
+      <c r="B7" s="97"/>
+      <c r="C7" s="93"/>
       <c r="D7" s="31">
         <v>1.3</v>
       </c>
@@ -3609,8 +3619,8 @@
       </c>
     </row>
     <row r="8" spans="2:86" ht="30" customHeight="1">
-      <c r="B8" s="93"/>
-      <c r="C8" s="94"/>
+      <c r="B8" s="97"/>
+      <c r="C8" s="98"/>
       <c r="D8" s="31">
         <v>1.4</v>
       </c>
@@ -3622,8 +3632,8 @@
       </c>
     </row>
     <row r="9" spans="2:86" ht="30" customHeight="1">
-      <c r="B9" s="93"/>
-      <c r="C9" s="88"/>
+      <c r="B9" s="97"/>
+      <c r="C9" s="93"/>
       <c r="D9" s="32">
         <v>1.5</v>
       </c>
@@ -3635,10 +3645,10 @@
       </c>
     </row>
     <row r="10" spans="2:86" ht="30" customHeight="1">
-      <c r="B10" s="87">
+      <c r="B10" s="92">
         <v>2</v>
       </c>
-      <c r="C10" s="88" t="s">
+      <c r="C10" s="93" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="33">
@@ -3652,8 +3662,8 @@
       </c>
     </row>
     <row r="11" spans="2:86" ht="30" customHeight="1">
-      <c r="B11" s="87"/>
-      <c r="C11" s="88"/>
+      <c r="B11" s="92"/>
+      <c r="C11" s="93"/>
       <c r="D11" s="31">
         <v>2.2000000000000002</v>
       </c>
@@ -3663,15 +3673,15 @@
       <c r="F11" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="CF11" s="89" t="s">
+      <c r="CF11" s="90" t="s">
         <v>102</v>
       </c>
-      <c r="CG11" s="89"/>
-      <c r="CH11" s="89"/>
+      <c r="CG11" s="90"/>
+      <c r="CH11" s="90"/>
     </row>
     <row r="12" spans="2:86" ht="30" customHeight="1">
-      <c r="B12" s="87"/>
-      <c r="C12" s="88"/>
+      <c r="B12" s="92"/>
+      <c r="C12" s="93"/>
       <c r="D12" s="31">
         <v>2.2999999999999998</v>
       </c>
@@ -3683,8 +3693,8 @@
       </c>
     </row>
     <row r="13" spans="2:86" ht="30" customHeight="1">
-      <c r="B13" s="87"/>
-      <c r="C13" s="88"/>
+      <c r="B13" s="92"/>
+      <c r="C13" s="93"/>
       <c r="D13" s="31">
         <v>2.4</v>
       </c>
@@ -3696,8 +3706,8 @@
       </c>
     </row>
     <row r="14" spans="2:86" ht="30" customHeight="1">
-      <c r="B14" s="87"/>
-      <c r="C14" s="88"/>
+      <c r="B14" s="92"/>
+      <c r="C14" s="93"/>
       <c r="D14" s="32">
         <v>2.5</v>
       </c>
@@ -3709,10 +3719,10 @@
       </c>
     </row>
     <row r="15" spans="2:86" ht="30" customHeight="1">
-      <c r="B15" s="87">
+      <c r="B15" s="92">
         <v>3</v>
       </c>
-      <c r="C15" s="88" t="s">
+      <c r="C15" s="93" t="s">
         <v>8</v>
       </c>
       <c r="D15" s="33">
@@ -3726,8 +3736,8 @@
       </c>
     </row>
     <row r="16" spans="2:86" ht="30" customHeight="1">
-      <c r="B16" s="87"/>
-      <c r="C16" s="88"/>
+      <c r="B16" s="92"/>
+      <c r="C16" s="93"/>
       <c r="D16" s="31">
         <v>3.2</v>
       </c>
@@ -3739,8 +3749,8 @@
       </c>
     </row>
     <row r="17" spans="2:6" ht="30" customHeight="1">
-      <c r="B17" s="87"/>
-      <c r="C17" s="88"/>
+      <c r="B17" s="92"/>
+      <c r="C17" s="93"/>
       <c r="D17" s="32">
         <v>3.3</v>
       </c>
@@ -3752,10 +3762,10 @@
       </c>
     </row>
     <row r="18" spans="2:6" ht="30" customHeight="1">
-      <c r="B18" s="87">
+      <c r="B18" s="92">
         <v>4</v>
       </c>
-      <c r="C18" s="88" t="s">
+      <c r="C18" s="93" t="s">
         <v>53</v>
       </c>
       <c r="D18" s="33">
@@ -3769,8 +3779,8 @@
       </c>
     </row>
     <row r="19" spans="2:6" ht="30" customHeight="1">
-      <c r="B19" s="87"/>
-      <c r="C19" s="88"/>
+      <c r="B19" s="92"/>
+      <c r="C19" s="93"/>
       <c r="D19" s="31">
         <v>4.2</v>
       </c>
@@ -3782,8 +3792,8 @@
       </c>
     </row>
     <row r="20" spans="2:6" ht="30" customHeight="1">
-      <c r="B20" s="87"/>
-      <c r="C20" s="88"/>
+      <c r="B20" s="92"/>
+      <c r="C20" s="93"/>
       <c r="D20" s="31">
         <v>4.3</v>
       </c>
@@ -3795,8 +3805,8 @@
       </c>
     </row>
     <row r="21" spans="2:6" ht="30" customHeight="1">
-      <c r="B21" s="87"/>
-      <c r="C21" s="88"/>
+      <c r="B21" s="92"/>
+      <c r="C21" s="93"/>
       <c r="D21" s="32">
         <v>4.4000000000000004</v>
       </c>
@@ -3808,10 +3818,10 @@
       </c>
     </row>
     <row r="22" spans="2:6" ht="30" customHeight="1">
-      <c r="B22" s="90">
+      <c r="B22" s="94">
         <v>5</v>
       </c>
-      <c r="C22" s="91" t="s">
+      <c r="C22" s="95" t="s">
         <v>58</v>
       </c>
       <c r="D22" s="33">
@@ -3825,8 +3835,8 @@
       </c>
     </row>
     <row r="23" spans="2:6" ht="30" customHeight="1">
-      <c r="B23" s="90"/>
-      <c r="C23" s="91"/>
+      <c r="B23" s="94"/>
+      <c r="C23" s="95"/>
       <c r="D23" s="34">
         <v>5.2</v>
       </c>
@@ -3838,10 +3848,10 @@
       </c>
     </row>
     <row r="24" spans="2:6" ht="30" customHeight="1">
-      <c r="B24" s="87">
+      <c r="B24" s="92">
         <v>6</v>
       </c>
-      <c r="C24" s="88" t="s">
+      <c r="C24" s="93" t="s">
         <v>15</v>
       </c>
       <c r="D24" s="33">
@@ -3855,8 +3865,8 @@
       </c>
     </row>
     <row r="25" spans="2:6" ht="30" customHeight="1">
-      <c r="B25" s="87"/>
-      <c r="C25" s="88"/>
+      <c r="B25" s="92"/>
+      <c r="C25" s="93"/>
       <c r="D25" s="31">
         <v>6.2</v>
       </c>
@@ -3868,8 +3878,8 @@
       </c>
     </row>
     <row r="26" spans="2:6" ht="30" customHeight="1">
-      <c r="B26" s="87"/>
-      <c r="C26" s="88"/>
+      <c r="B26" s="92"/>
+      <c r="C26" s="93"/>
       <c r="D26" s="32">
         <v>6.3</v>
       </c>
@@ -3963,11 +3973,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="BO4:BQ4"/>
-    <mergeCell ref="CF4:CH4"/>
-    <mergeCell ref="CF11:CH11"/>
-    <mergeCell ref="AD4:AF4"/>
-    <mergeCell ref="AU4:AW4"/>
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="C24:C26"/>
     <mergeCell ref="Q3:R3"/>
@@ -3982,6 +3987,11 @@
     <mergeCell ref="C5:C9"/>
     <mergeCell ref="B10:B14"/>
     <mergeCell ref="C10:C14"/>
+    <mergeCell ref="BO4:BQ4"/>
+    <mergeCell ref="CF4:CH4"/>
+    <mergeCell ref="CF11:CH11"/>
+    <mergeCell ref="AD4:AF4"/>
+    <mergeCell ref="AU4:AW4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3992,7 +4002,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4A7B72F-86CC-4D95-8679-E8786A5203A1}">
   <dimension ref="B3:H28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
@@ -4009,15 +4019,15 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:8">
-      <c r="B3" s="97" t="s">
+      <c r="B3" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
     </row>
     <row r="4" spans="2:8">
       <c r="B4" s="56" t="s">
@@ -4043,10 +4053,10 @@
       </c>
     </row>
     <row r="5" spans="2:8">
-      <c r="B5" s="96">
+      <c r="B5" s="99">
         <v>1</v>
       </c>
-      <c r="C5" s="94" t="s">
+      <c r="C5" s="98" t="s">
         <v>39</v>
       </c>
       <c r="D5" s="31">
@@ -4066,8 +4076,8 @@
       </c>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6" s="96"/>
-      <c r="C6" s="94"/>
+      <c r="B6" s="99"/>
+      <c r="C6" s="98"/>
       <c r="D6" s="31">
         <v>1.2</v>
       </c>
@@ -4083,8 +4093,8 @@
       <c r="H6" s="20"/>
     </row>
     <row r="7" spans="2:8">
-      <c r="B7" s="96"/>
-      <c r="C7" s="94"/>
+      <c r="B7" s="99"/>
+      <c r="C7" s="98"/>
       <c r="D7" s="31">
         <v>1.3</v>
       </c>
@@ -4100,8 +4110,8 @@
       <c r="H7" s="20"/>
     </row>
     <row r="8" spans="2:8">
-      <c r="B8" s="96"/>
-      <c r="C8" s="94"/>
+      <c r="B8" s="99"/>
+      <c r="C8" s="98"/>
       <c r="D8" s="31">
         <v>1.4</v>
       </c>
@@ -4117,8 +4127,8 @@
       <c r="H8" s="20"/>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="96"/>
-      <c r="C9" s="94"/>
+      <c r="B9" s="99"/>
+      <c r="C9" s="98"/>
       <c r="D9" s="31">
         <v>1.5</v>
       </c>
@@ -4134,10 +4144,10 @@
       <c r="H9" s="20"/>
     </row>
     <row r="10" spans="2:8">
-      <c r="B10" s="96">
+      <c r="B10" s="99">
         <v>2</v>
       </c>
-      <c r="C10" s="94" t="s">
+      <c r="C10" s="98" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="31">
@@ -4157,8 +4167,8 @@
       </c>
     </row>
     <row r="11" spans="2:8">
-      <c r="B11" s="96"/>
-      <c r="C11" s="94"/>
+      <c r="B11" s="99"/>
+      <c r="C11" s="98"/>
       <c r="D11" s="31">
         <v>2.2000000000000002</v>
       </c>
@@ -4174,10 +4184,10 @@
       <c r="H11" s="20"/>
     </row>
     <row r="12" spans="2:8">
-      <c r="B12" s="96">
+      <c r="B12" s="99">
         <v>3</v>
       </c>
-      <c r="C12" s="94" t="s">
+      <c r="C12" s="98" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="31">
@@ -4195,8 +4205,8 @@
       <c r="H12" s="20"/>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="96"/>
-      <c r="C13" s="94"/>
+      <c r="B13" s="99"/>
+      <c r="C13" s="98"/>
       <c r="D13" s="31">
         <v>3.2</v>
       </c>
@@ -4214,8 +4224,8 @@
       </c>
     </row>
     <row r="14" spans="2:8">
-      <c r="B14" s="96"/>
-      <c r="C14" s="94"/>
+      <c r="B14" s="99"/>
+      <c r="C14" s="98"/>
       <c r="D14" s="31">
         <v>3.3</v>
       </c>
@@ -4231,10 +4241,10 @@
       <c r="H14" s="20"/>
     </row>
     <row r="15" spans="2:8">
-      <c r="B15" s="96">
+      <c r="B15" s="99">
         <v>4</v>
       </c>
-      <c r="C15" s="94" t="s">
+      <c r="C15" s="98" t="s">
         <v>53</v>
       </c>
       <c r="D15" s="31">
@@ -4252,8 +4262,8 @@
       <c r="H15" s="20"/>
     </row>
     <row r="16" spans="2:8">
-      <c r="B16" s="96"/>
-      <c r="C16" s="94"/>
+      <c r="B16" s="99"/>
+      <c r="C16" s="98"/>
       <c r="D16" s="31">
         <v>4.2</v>
       </c>
@@ -4269,8 +4279,8 @@
       <c r="H16" s="20"/>
     </row>
     <row r="17" spans="2:8">
-      <c r="B17" s="96"/>
-      <c r="C17" s="94"/>
+      <c r="B17" s="99"/>
+      <c r="C17" s="98"/>
       <c r="D17" s="31">
         <v>4.3</v>
       </c>
@@ -4286,10 +4296,10 @@
       <c r="H17" s="20"/>
     </row>
     <row r="18" spans="2:8">
-      <c r="B18" s="96">
+      <c r="B18" s="99">
         <v>5</v>
       </c>
-      <c r="C18" s="94" t="s">
+      <c r="C18" s="98" t="s">
         <v>58</v>
       </c>
       <c r="D18" s="31">
@@ -4307,8 +4317,8 @@
       <c r="H18" s="20"/>
     </row>
     <row r="19" spans="2:8">
-      <c r="B19" s="96"/>
-      <c r="C19" s="94"/>
+      <c r="B19" s="99"/>
+      <c r="C19" s="98"/>
       <c r="D19" s="31">
         <v>5.2</v>
       </c>
@@ -4324,10 +4334,10 @@
       <c r="H19" s="20"/>
     </row>
     <row r="20" spans="2:8">
-      <c r="B20" s="96">
+      <c r="B20" s="99">
         <v>6</v>
       </c>
-      <c r="C20" s="94" t="s">
+      <c r="C20" s="98" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="31">
@@ -4345,8 +4355,8 @@
       <c r="H20" s="20"/>
     </row>
     <row r="21" spans="2:8">
-      <c r="B21" s="96"/>
-      <c r="C21" s="94"/>
+      <c r="B21" s="99"/>
+      <c r="C21" s="98"/>
       <c r="D21" s="31">
         <v>6.2</v>
       </c>
@@ -4362,8 +4372,8 @@
       <c r="H21" s="20"/>
     </row>
     <row r="22" spans="2:8">
-      <c r="B22" s="96"/>
-      <c r="C22" s="94"/>
+      <c r="B22" s="99"/>
+      <c r="C22" s="98"/>
       <c r="D22" s="31">
         <v>6.3</v>
       </c>
@@ -4417,10 +4427,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDE1FF8F-EB37-449D-98E3-F8D67A18F8C1}">
-  <dimension ref="C3:O30"/>
+  <dimension ref="C3:O37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27:I30"/>
+    <sheetView tabSelected="1" topLeftCell="F29" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4468,19 +4478,19 @@
         <v>138</v>
       </c>
       <c r="I4" s="62"/>
-      <c r="K4" s="98" t="s">
+      <c r="K4" s="101" t="s">
         <v>175</v>
       </c>
-      <c r="L4" s="98"/>
-      <c r="M4" s="98"/>
-      <c r="N4" s="98"/>
-      <c r="O4" s="98"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="101"/>
+      <c r="N4" s="101"/>
+      <c r="O4" s="101"/>
     </row>
     <row r="5" spans="3:15">
-      <c r="C5" s="96">
+      <c r="C5" s="99">
         <v>1</v>
       </c>
-      <c r="D5" s="94" t="s">
+      <c r="D5" s="98" t="s">
         <v>39</v>
       </c>
       <c r="E5" s="31">
@@ -4498,8 +4508,8 @@
       <c r="I5" s="20"/>
     </row>
     <row r="6" spans="3:15">
-      <c r="C6" s="96"/>
-      <c r="D6" s="94"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="98"/>
       <c r="E6" s="31">
         <v>1.2</v>
       </c>
@@ -4518,8 +4528,8 @@
       </c>
     </row>
     <row r="7" spans="3:15">
-      <c r="C7" s="96"/>
-      <c r="D7" s="94"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="98"/>
       <c r="E7" s="31">
         <v>1.3</v>
       </c>
@@ -4535,8 +4545,8 @@
       <c r="I7" s="20"/>
     </row>
     <row r="8" spans="3:15">
-      <c r="C8" s="96"/>
-      <c r="D8" s="94"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="98"/>
       <c r="E8" s="31">
         <v>1.4</v>
       </c>
@@ -4558,8 +4568,8 @@
       </c>
     </row>
     <row r="9" spans="3:15">
-      <c r="C9" s="96"/>
-      <c r="D9" s="94"/>
+      <c r="C9" s="99"/>
+      <c r="D9" s="98"/>
       <c r="E9" s="31">
         <v>1.5</v>
       </c>
@@ -4582,10 +4592,10 @@
       <c r="M9" s="71"/>
     </row>
     <row r="10" spans="3:15">
-      <c r="C10" s="96">
+      <c r="C10" s="99">
         <v>2</v>
       </c>
-      <c r="D10" s="94" t="s">
+      <c r="D10" s="98" t="s">
         <v>5</v>
       </c>
       <c r="E10" s="31">
@@ -4609,8 +4619,8 @@
       </c>
     </row>
     <row r="11" spans="3:15">
-      <c r="C11" s="96"/>
-      <c r="D11" s="94"/>
+      <c r="C11" s="99"/>
+      <c r="D11" s="98"/>
       <c r="E11" s="31">
         <v>2.2000000000000002</v>
       </c>
@@ -4630,10 +4640,10 @@
       <c r="L11" s="73"/>
     </row>
     <row r="12" spans="3:15">
-      <c r="C12" s="96">
+      <c r="C12" s="99">
         <v>3</v>
       </c>
-      <c r="D12" s="94" t="s">
+      <c r="D12" s="98" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="31">
@@ -4655,8 +4665,8 @@
       <c r="L12" s="20"/>
     </row>
     <row r="13" spans="3:15">
-      <c r="C13" s="96"/>
-      <c r="D13" s="94"/>
+      <c r="C13" s="99"/>
+      <c r="D13" s="98"/>
       <c r="E13" s="31">
         <v>3.2</v>
       </c>
@@ -4676,8 +4686,8 @@
       <c r="L13" s="20"/>
     </row>
     <row r="14" spans="3:15">
-      <c r="C14" s="96"/>
-      <c r="D14" s="94"/>
+      <c r="C14" s="99"/>
+      <c r="D14" s="98"/>
       <c r="E14" s="31">
         <v>3.3</v>
       </c>
@@ -4693,10 +4703,10 @@
       <c r="I14" s="20"/>
     </row>
     <row r="15" spans="3:15">
-      <c r="C15" s="96">
+      <c r="C15" s="99">
         <v>4</v>
       </c>
-      <c r="D15" s="94" t="s">
+      <c r="D15" s="98" t="s">
         <v>53</v>
       </c>
       <c r="E15" s="31">
@@ -4717,8 +4727,8 @@
       </c>
     </row>
     <row r="16" spans="3:15">
-      <c r="C16" s="96"/>
-      <c r="D16" s="94"/>
+      <c r="C16" s="99"/>
+      <c r="D16" s="98"/>
       <c r="E16" s="31">
         <v>4.2</v>
       </c>
@@ -4734,8 +4744,8 @@
       <c r="I16" s="20"/>
     </row>
     <row r="17" spans="3:14">
-      <c r="C17" s="96"/>
-      <c r="D17" s="94"/>
+      <c r="C17" s="99"/>
+      <c r="D17" s="98"/>
       <c r="E17" s="31">
         <v>4.3</v>
       </c>
@@ -4754,10 +4764,10 @@
       </c>
     </row>
     <row r="18" spans="3:14">
-      <c r="C18" s="96">
+      <c r="C18" s="99">
         <v>5</v>
       </c>
-      <c r="D18" s="94" t="s">
+      <c r="D18" s="98" t="s">
         <v>58</v>
       </c>
       <c r="E18" s="31">
@@ -4781,8 +4791,8 @@
       </c>
     </row>
     <row r="19" spans="3:14">
-      <c r="C19" s="96"/>
-      <c r="D19" s="94"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="98"/>
       <c r="E19" s="31">
         <v>5.2</v>
       </c>
@@ -4804,10 +4814,10 @@
       </c>
     </row>
     <row r="20" spans="3:14">
-      <c r="C20" s="96">
+      <c r="C20" s="99">
         <v>6</v>
       </c>
-      <c r="D20" s="94" t="s">
+      <c r="D20" s="98" t="s">
         <v>15</v>
       </c>
       <c r="E20" s="31">
@@ -4831,8 +4841,8 @@
       </c>
     </row>
     <row r="21" spans="3:14">
-      <c r="C21" s="96"/>
-      <c r="D21" s="94"/>
+      <c r="C21" s="99"/>
+      <c r="D21" s="98"/>
       <c r="E21" s="31">
         <v>6.2</v>
       </c>
@@ -4851,8 +4861,8 @@
       </c>
     </row>
     <row r="22" spans="3:14">
-      <c r="C22" s="96"/>
-      <c r="D22" s="94"/>
+      <c r="C22" s="99"/>
+      <c r="D22" s="98"/>
       <c r="E22" s="31">
         <v>6.3</v>
       </c>
@@ -4876,10 +4886,10 @@
       </c>
     </row>
     <row r="26" spans="3:14">
-      <c r="H26" s="99" t="s">
+      <c r="H26" s="74" t="s">
         <v>172</v>
       </c>
-      <c r="I26" s="101" t="s">
+      <c r="I26" s="76" t="s">
         <v>139</v>
       </c>
     </row>
@@ -4895,7 +4905,7 @@
       <c r="H28" s="66" t="s">
         <v>174</v>
       </c>
-      <c r="I28" s="100" t="s">
+      <c r="I28" s="75" t="s">
         <v>196</v>
       </c>
     </row>
@@ -4903,7 +4913,7 @@
       <c r="H29" t="s">
         <v>197</v>
       </c>
-      <c r="I29" s="100" t="s">
+      <c r="I29" s="75" t="s">
         <v>198</v>
       </c>
     </row>
@@ -4912,13 +4922,18 @@
         <v>199</v>
       </c>
     </row>
+    <row r="36" spans="8:8">
+      <c r="H36" s="102" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="8:8">
+      <c r="H37" s="20" t="s">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="K4:O4"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
     <mergeCell ref="C20:C22"/>
     <mergeCell ref="D20:D22"/>
     <mergeCell ref="C5:C9"/>
@@ -4927,6 +4942,11 @@
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="C12:C14"/>
     <mergeCell ref="D12:D14"/>
+    <mergeCell ref="K4:O4"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
